--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Leonel Brizola;Luis Inácio Lula da Silva;Mário Covas;Paulo Maluf;Aureliano Chaves;Afif Domingos;Roberto Freire;Ronaldo Caiado;Affonso Camargo</t>
+          <t>Leonel Brizola;Luiz Inácio Lula da Silva;Mário Covas;Paulo Maluf;Aureliano Chaves;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Affonso Camargo</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luis Inacio Lula da Silva;Mario Covas</t>
+          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luiz Inacio Lula da Silva;Mario Covas</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luis Inacio Lula da Silva;Mario Covas</t>
+          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luiz Inacio Lula da Silva;Mario Covas</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>primero: Leonel Brizola;Paulo Maluf;Aureliano Chaves;Guillerme Afif Domingos;Roberto Freire;segundo: Mario Covas;Luis Inácio Lula da Silva;Ulysses Guimaraes;Ronaldo Caiado;Alfonso Camargo</t>
+          <t>primero: Leonel Brizola;Paulo Maluf;Aureliano Chaves;Guilherme Afif Domingos;Roberto Freire;segundo: Mario Covas;Luiz Inácio Lula da Silva;Ulysses Guimaraes;Ronaldo Caiado;Affonso Camargo</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luis Inacio Lula da Silva;Mario Covas</t>
+          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luiz Inacio Lula da Silva;Mario Covas</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luis Inacio Lula da Silva;Mario Covas;Ulysses Guimaraes;Affonso Camargo;Aureliano Chaves</t>
+          <t>Leonel Brizola;Paulo Maluf;Guilherme Afif Domingos;Roberto Freire;Ronaldo Caiado;Luiz Inacio Lula da Silva;Mario Covas;Ulysses Guimaraes;Affonso Camargo;Aureliano Chaves</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Fernando Collor de Mello;Luis Inácio Lula da Silva</t>
+          <t>Fernando Collor de Mello;Luiz Inácio Lula da Silva</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Fernando Collor de Mello;Luis Inácio Lula da Silva</t>
+          <t>Fernando Collor de Mello;Luiz Inácio Lula da Silva</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Esperidião Amin;Leonel Brizola;Enéas Ferreira Carneiro;Hernani Goulart Fortuna;Luis Inacio Lula da Silva</t>
+          <t>Esperidião Amin;Leonel Brizola;Enéas Ferreira Carneiro;Hernani Goulart Fortuna;Luiz Inacio Lula da Silva</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Marina Silva;José Serra;Dilma Rouseff;Plinio Sampaio</t>
+          <t>Marina Silva;José Serra;Dilma Rousseff;Plinio Sampaio</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Marina Silva;José Serra;Dilma Rouseff</t>
+          <t>Marina Silva;José Serra;Dilma Rousseff</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Dilma Rouseff</t>
+          <t>Dilma Rousseff</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Dilma Rouseff</t>
+          <t>Dilma Rousseff</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Dilma Rouseff</t>
+          <t>Dilma Rousseff</t>
         </is>
       </c>
       <c r="S29">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>José Serra;Dilma Rouseff;Plinio Sampaio;Marina Silva</t>
+          <t>José Serra;Dilma Rousseff;Plinio Sampaio;Marina Silva</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>José Serra;Dilma Rouseff;Plinio Sampaio;Marina Silva</t>
+          <t>José Serra;Dilma Rousseff;Plinio Sampaio;Marina Silva</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>José Serra;Dilma Rouseff</t>
+          <t>José Serra;Dilma Rousseff</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>José Serra;Dilma Rouseff</t>
+          <t>José Serra;Dilma Rousseff</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>José Serra;Dilma Rouseff</t>
+          <t>José Serra;Dilma Rousseff</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>José Serra;Dilma Rouseff</t>
+          <t>José Serra;Dilma Rousseff</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Michelle Bachelet;Tomás Hirsch;Joaquín Lavín;Sebastián Piñera</t>
+          <t>Michelle Bachelet Jeria;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante;Sebastián Piñera</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Michelle Bachelet;Tomás Hirsch;Joaquín Lavín;Sebastián Piñera</t>
+          <t>Michelle Bachelet Jeria;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante;Sebastián Piñera</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Franco Parisi Fernández;Marcel Claude Reyes;Ricardo Israel Zipper;Marco Enríquez-Ominami Gumucio;Roxana Miranda Meneses;Evelyn Matthei Fornet;Alfredo Sfeir Younis;Tomás Jocelyn-Holt Letelier</t>
+          <t>Franco Parisi;Marcel Claude Reyes;Ricardo Israel Zipper;Marco Enríquez-Ominami Gumucio;Roxana Miranda Meneses;Evelyn Matthei Fornet;Alfredo Sfeir Younis;Tomás Jocelyn-Holt Letelier</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Michelle Bachelet Jeria;Franco Parisi Fernández;Marcel Claude Reyes;Ricardo Israel Zipper;Marco Enríquez-Ominami Gumucio;Roxana Miranda Meneses;Evelyn Matthei Fornet;Alfredo Sfeir Younis;Tomás Jocelyn-Holt Letelier</t>
+          <t>Michelle Bachelet Jeria;Franco Parisi;Marcel Claude Reyes;Ricardo Israel Zipper;Marco Enríquez-Ominami Gumucio;Roxana Miranda Meneses;Evelyn Matthei Fornet;Alfredo Sfeir Younis;Tomás Jocelyn-Holt Letelier</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -15934,7 +15934,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>el primero: Constanza Santa María;Claudio Elórtegui;Soledad Onetto; el segundo: Beatriz Sánchez;Mauricio Bustamante;Iván Núñez</t>
+          <t>el primero: Constanza Santa María;Claudio Elórtegui;Soledad Onetto; el segundo: Beatriz Sánchez Muñoz;Mauricio Bustamante;Iván Núñez</t>
         </is>
       </c>
       <c r="O77">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Michelle Bachelet Jeria;Franco Parisi Fernández;Marcel Claude Reyes;Ricardo Israel Zipper;Marco Enríquez-Ominami Gumucio;Roxana Miranda Meneses;Evelyn Matthei Fornet;Alfredo Sfeir Younis;Tomás Jocelyn-Holt Letelier</t>
+          <t>Michelle Bachelet Jeria;Franco Parisi;Marcel Claude Reyes;Ricardo Israel Zipper;Marco Enríquez-Ominami Gumucio;Roxana Miranda Meneses;Evelyn Matthei Fornet;Alfredo Sfeir Younis;Tomás Jocelyn-Holt Letelier</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Beatriz Sánchez;Gabriela Núñez;Mauricio Bustamante;Soledad Onetto;Iván Núñez;Ramón Ulloa</t>
+          <t>Beatriz Sánchez Muñoz;Gabriela Núñez;Mauricio Bustamante;Soledad Onetto;Iván Núñez;Ramón Ulloa</t>
         </is>
       </c>
       <c r="O79">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Michelle Bachelet Jeria;Franco Parisi Fernández;Evelyn Matthei Fornet;Marco Enríquez-Ominami Gumucio</t>
+          <t>Michelle Bachelet Jeria;Franco Parisi;Evelyn Matthei Fornet;Marco Enríquez-Ominami Gumucio</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sebastián Piñera;Beatriz Sánchez;José Antonio Kast; Alejandro Guillier;Carolina Goic</t>
+          <t>Sebastián Piñera Echenique;Beatriz Sánchez Muñoz;José Antonio Kast;Alejandro Guillier;Carolina Goic</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Marco Enríquez-Ominami Gumucio;Beatriz Sánchez;José Antonio Kast;Carolina Goic;Alejandro Guillier Álvarez;Eduardo Artés Brichetti;Alejandro Navarro Brain</t>
+          <t>Marco Enríquez-Ominami Gumucio;Beatriz Sánchez Muñoz;José Antonio Kast;Carolina Goic;Alejandro Guillier;Eduardo Artés;Alejandro Navarro Brain</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -17102,7 +17102,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Sebastián Piñera;José Antonio Kast;Carolina Goic;Alejandro Guillier Álvarez;Eduardo Artés Brichetti;Alejandro Navarro Brain</t>
+          <t>Sebastián Piñera Echenique;José Antonio Kast;Carolina Goic;Alejandro Guillier;Eduardo Artés;Alejandro Navarro Brain</t>
         </is>
       </c>
       <c r="S83">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Carolina Goic Boroevic;José Antonio Kast Rist;Sebastián Piñera Echenique;Alejandro Guillier Álvarez;Beatriz Sánchez Muñoz;Marco Enríquez-Ominami Gumucio;Eduardo Artés Brichetti;Alejandro Navarro Brain</t>
+          <t>Carolina Goic;José Antonio Kast;Sebastián Piñera Echenique;Alejandro Guillier;Beatriz Sánchez Muñoz;Marco Enríquez-Ominami Gumucio;Eduardo Artés;Alejandro Navarro Brain</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Carolina Goic Boroevic;José Antonio Kast Rist;Sebastián Piñera Echenique;Alejandro Guillier Álvarez;Beatriz Sánchez Muñoz;Marco Enríquez-Ominami Gumucio;Eduardo Artés Brichetti;Alejandro Navarro Brain</t>
+          <t>Carolina Goic;José Antonio Kast;Sebastián Piñera Echenique;Alejandro Guillier;Beatriz Sánchez Muñoz;Marco Enríquez-Ominami Gumucio;Eduardo Artés;Alejandro Navarro Brain</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Carolina Goic Boroevic;José Antonio Kast Rist;Sebastián Piñera Echenique;Alejandro Guillier Álvarez;Beatriz Sánchez Muñoz;Marco Enríquez-Ominami Gumucio;Eduardo Artés Brichetti;Alejandro Navarro Brain</t>
+          <t>Carolina Goic;José Antonio Kast;Sebastián Piñera Echenique;Alejandro Guillier;Beatriz Sánchez Muñoz;Marco Enríquez-Ominami Gumucio;Eduardo Artés;Alejandro Navarro Brain</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Sebastián Piñera Echenique;Alejandro Guillier Álvarez</t>
+          <t>Sebastián Piñera Echenique;Alejandro Guillier</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Sebastián Piñera Echenique;Alejandro Guillier Álvarez</t>
+          <t>Sebastián Piñera Echenique;Alejandro Guillier</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>MEO;Franco Parisi</t>
+          <t>Marco Enríquez-Ominami Gumucio;Franco Parisi</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>MEO;Franco Parisi;Eduardo Artés;Gabriel Boric</t>
+          <t>Marco Enríquez-Ominami Gumucio;Franco Parisi;Eduardo Artés;Gabriel Boric</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>MEO;Eduardo Artés;José Antonio Kast;Sebastián Sichel;Gabriel Boric;Yasna Provoste</t>
+          <t>Marco Enríquez-Ominami Gumucio;Eduardo Artés;José Antonio Kast;Sebastián Sichel;Gabriel Boric;Yasna Provoste</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -18890,7 +18890,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>MEO;Eduardo Artés;José Antonio Kast;Sebastián Sichel;Gabriel Boric;Yasna Provoste</t>
+          <t>Marco Enríquez-Ominami Gumucio;Eduardo Artés;José Antonio Kast;Sebastián Sichel;Gabriel Boric;Yasna Provoste</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Gabriel Boric;MEO;Yasna Provoste;Sebastián Sichel;Franco Parisi</t>
+          <t>Gabriel Boric;Marco Enríquez-Ominami Gumucio;Yasna Provoste;Sebastián Sichel;Franco Parisi</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Gabriel Boric;Yasna Provoste;Sebastián Sichel;Eduardo Artés;MEO</t>
+          <t>Gabriel Boric;Yasna Provoste;Sebastián Sichel;Eduardo Artés;Marco Enríquez-Ominami Gumucio</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -19540,7 +19540,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Yasna Provoste;Sebastián Sichel;Eduardo Artés;MEO</t>
+          <t>Yasna Provoste;Sebastián Sichel;Eduardo Artés;Marco Enríquez-Ominami Gumucio</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -19765,7 +19765,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Yasna Provoste;MEO;Gabriel Boric;José Antonio Kast;Sebastián Sichel</t>
+          <t>Yasna Provoste;Marco Enríquez-Ominami Gumucio;Gabriel Boric;José Antonio Kast;Sebastián Sichel</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Yasna Provoste;MEO;Gabriel Boric;José Antonio Kast;Sebastián Sichel;Eduardo Artés</t>
+          <t>Yasna Provoste;Marco Enríquez-Ominami Gumucio;Gabriel Boric;José Antonio Kast;Sebastián Sichel;Eduardo Artés</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -22027,7 +22027,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Alberto Fujimori Fujimori;Mario Vargas Llosa</t>
+          <t>Alberto Fujimori;Mario Vargas Llosa</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -22632,7 +22632,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Keiko Fujimori Higuchi;Óscar Luis Castañeda Lossio;Pedro Pablo Kuczynski Godard;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Edith Reymer Rodríguez;Humberto Pinazo Bella;Rafael Luis Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Manuel Germán Noriega Salaverry;José Antonio Ñique de la Puente</t>
+          <t>Keiko Fujimori Higuchi;Óscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Edith Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Noriega Salaverry;José Antonio Ñique de la Puente</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -22831,7 +22831,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Ollanta Moisés Humala Tasso;Ricardo Noriega Salaverry;Juliana Reymer Rodríguez;Manuel Rodríguez Cuadros;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;José Ñique de la Puente;Pedro Pablo Kuczynski;Humberto Punazo Bella;Rafael Belaúnde Aubry;Luis Castañeda Lossio</t>
+          <t>Ollanta Moisés Humala Tasso;Ricardo Noriega Salaverry;Juliana Reymer Rodríguez;Manuel Rodríguez Cuadros;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;José Ñique de la Puente;Pedro Pablo Kuczynski;Humberto Pinazo Bella;Rafael Belaúnde Aubry;Luis Castañeda Lossio</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -23447,12 +23447,12 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>primero: Ántero Flores-Aráoz;Hernando Guerra García;Francisco Diez Canseco;Yehude Simon;Fernando Olivera; segundo: Julio Guzmán; Verónika Mendoza;Vladimir Cerrón;Gregorio Santos</t>
+          <t>primero: Ántero Flores-Aráoz;Hernando Guerra García;Francisco Diez Canseco;Yehude Simon;Fernando Olivera; segundo: Julio Guzmán; Verónika Mendoza;Vladimir Cerrón;Gregorio Santos Guerrero</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>ausentes a la primera: César Acuña;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;Miguel Hilario;ausentes a la segunda: Daniel Urresti Elera;Alan García;Pedro Pablo Kuczynski;Renzo Reggiardo;Alfredo Barnechea</t>
+          <t>ausentes a la primera: César Acuña;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;Miguel Hilario;ausentes a la segunda: Daniel Urresti Elera;Alan García Pérez;Pedro Pablo Kuczynski;Renzo Reggiardo;Alfredo Barnechea</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -24686,7 +24686,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>primero: César Acuña;Marco Arana;Keiko Fujimori;Verónika Mendoza;Alberto Beingolea;George Forsyth; segundo: Hernando de Soto;Andrés Alcántara;Ollanta Moisés Humala Taso;José Castillo;Daniel Urresti;José Vega;tercero: Yonhy Lescano;Julio Guzmán;Rafael Santos;Ciro Gálvez;Rafael López Aliaga;Daniel Salaverry</t>
+          <t>primero: César Acuña;Marco Arana;Keiko Fujimori Higuchi;Verónika Mendoza;Alberto Beingolea;George Forsyth; segundo: Hernando de Soto;Andrés Alcántara;Ollanta Moisés Humala Tasso;José Castillo;Daniel Urresti;José Vega;tercero: Yonhy Lescano;Julio Guzmán;Rafael Santos;Ciro Gálvez;Rafael López Aliaga;Daniel Salaverry</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -27594,7 +27594,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Sixto Durán Ballén;Jaime Roldós Aguilera</t>
+          <t>Sixto Durán Ballén;Jaime Roldós</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -27962,12 +27962,9 @@
           <t>Cámara de Industriales de Pichincha</t>
         </is>
       </c>
-      <c r="O137">
-        <v>1</v>
-      </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>No invitado Abdalá</t>
+          <t>sin datos</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -28026,9 +28023,6 @@
       <c r="AI137">
         <v>0</v>
       </c>
-      <c r="AJ137">
-        <v>1</v>
-      </c>
       <c r="AK137" t="inlineStr">
         <is>
           <t>NA</t>
@@ -28104,9 +28098,6 @@
       </c>
       <c r="AZ137">
         <v>12</v>
-      </c>
-      <c r="BA137">
-        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -28135,12 +28126,9 @@
           <t>Cámara de la Construcción de Quito</t>
         </is>
       </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>No invitado Abdalá</t>
+          <t>sin datos</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -28199,9 +28187,6 @@
       <c r="AI138">
         <v>0</v>
       </c>
-      <c r="AJ138">
-        <v>1</v>
-      </c>
       <c r="AK138" t="inlineStr">
         <is>
           <t>NA</t>
@@ -28277,9 +28262,6 @@
       </c>
       <c r="AZ138">
         <v>12</v>
-      </c>
-      <c r="BA138">
-        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="139">
@@ -29491,7 +29473,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Andrés Arauz;Yaku Pérez;Isidro Romero;Gustavo Larrea;Carlos Sagnay;Giovanni Andrade;Paúl Carrasco;Ximena Peña;Guillermo Lasso;Guillermo Celi;Lucio Gutiérrez;Xavier Hervas; César Montúfar;Gerson Almeida;Juan Fernando Velasco;Pedro José Freile</t>
+          <t>Andrés Arauz;Yaku Pérez;Isidro Romero;Gustavo Larrea;Carlos Sagnay;Giovanny Andrade;Paúl Carrasco;Ximena Peña;Guillermo Lasso;Guillermo Celi;Lucio Gutiérrez;Xavier Hervas; César Montúfar;Gerson Almeida;Juan Fernando Velasco;Pedro José Freile</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -29708,7 +29690,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>el primero: Isidro Romero;Gustavo Larrea;Carlos Sagnay;Giovanni Andrade;Paúl Carrasco;Ximena Peña;Guillermo Lasso; el segundo:  Guillermo Celi;Lucio Gutiérrez;Xavier Hervas; César Montúfar;Gerson Almeida;Juan Fernando Velasco;Pedro José Freile</t>
+          <t>el primero: Isidro Romero;Gustavo Larrea;Carlos Sagnay;Giovanny Andrade;Paúl Carrasco;Ximena Peña;Guillermo Lasso; el segundo:  Guillermo Celi;Lucio Gutiérrez;Xavier Hervas; César Montúfar;Gerson Almeida;Juan Fernando Velasco;Pedro José Freile</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -32045,7 +32027,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>Luis Alberto Lacalle;José Pepe Mujica</t>
+          <t>Luis Alberto Lacalle Herrera;José Pepe Mujica</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
@@ -34618,7 +34600,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>José Domingo Arias;Juan Carlos Navarro;Juan Carlos Valera;Genaro López;Juan Jované.</t>
+          <t>José Domingo Arias;Juan Carlos Navarro;Juan Carlos Varela;Genaro López;Juan Jované.</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -35016,7 +34998,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>Ana Matilde Gómez;Ricardo Lombana;Marco Ameglio;José Blandón;Saúl Méndez;Rómolo Rux</t>
+          <t>Ana Matilde Gómez;Ricardo Lombana;Marco Ameglio;José Isabel Blandón;Saúl Méndez;Rómolo Roux</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -38151,7 +38133,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>Gonzalo Sánchez de Losada;Manfred Reyes Villa</t>
+          <t>Gonzalo Sánchez de Lozada;Manfred Reyes Villa</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -38345,7 +38327,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>René Blattmann, Nicolás Valdivia, Costa Obregón  y Rolando Morales, Felipe Quispe, Johnny Fernández ni Evo Morales</t>
+          <t>René Blattmann;Nicolás Valdivia;Costa Obregón;Rolando Morales;Felipe Quispe;Johnny Fernández;Evo Morales</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -38407,10 +38389,10 @@
         </is>
       </c>
       <c r="AI194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AK194" t="inlineStr">
         <is>
@@ -38489,7 +38471,7 @@
         <v>11</v>
       </c>
       <c r="BA194">
-        <v>0.5454545454545454</v>
+        <v>1.090909090909091</v>
       </c>
     </row>
     <row r="195">
@@ -39137,7 +39119,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>Carlos Mesa;Jorge Tuto Quiroga;Feliciano Mamani;María de la Cruz Bayá;Chi Hyun Yung</t>
+          <t>Carlos Mesa;Jorge Tuto Quiroga;Feliciano Mamani;María de la Cruz Bayá;Chi Hyun Chung</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
@@ -41686,7 +41668,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>Arzu;Portillo</t>
+          <t>Álvaro Arzu;Alfonso Portillo</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -41958,7 +41940,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>Eduardo Suger;Fritz García-Gallont;Alvaro Colom;Manuel Conde;Leonel Lopez Rodas</t>
+          <t>Eduardo Suger;Fritz García-Gallont;Alvaro Colom;Manuel Conde Orellana;Leonel Lopez Rodas</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
@@ -42901,7 +42883,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Juan Gutiérrez;Eduardo Sugar;Adela de Torre;Harold Caballeros;Alejandro Diamatei;Patricia de Arzú;Otto Pérez Molina;Manuel Baldizón;Rigoberta Menchú</t>
+          <t>Juan Gutiérrez;Eduardo Suger;Adela de Torre;Harold Caballeros;Alejandro Giammattei;Patricia de Arzú;Otto Pérez Molina;Manuel Baldizón;Rigoberta Menchú</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -43072,12 +43054,9 @@
           <t>Movimiento de Inmigrantes Guatemaltecos;Coalición Nacional de Migrantes;Sindicato Internacional de Trabajadores de Servicios</t>
         </is>
       </c>
-      <c r="O221">
-        <v>5</v>
-      </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>;;;;</t>
+          <t>sin datos</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
@@ -44028,7 +44007,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>Sandra Torres;Roberto González;Lizardo Sosa;Zuri Ríos;Jimmy Morales</t>
+          <t>Sandra Torres;Roberto González;Lizardo Sosa;Zury Ríos;Jimmy Morales</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
@@ -44227,7 +44206,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>El primero: Manuel Baldizón;Alejandro Giammattei;Mario David García;Luis Fernando Pérez;Zury Ríos;El segundo: Aníbal García;Roberto González;Jimmy Morales;Miguel Ángel Sandoval;Lizardo Sosa;El tercero: Sandra Torres;José López Camposeco;Juan Gutiérrez;Mario Amílcar Estrada</t>
+          <t>El primero: Manuel Baldizón;Alejandro Giammattei;Mario David García;Luis Fernando Pérez;Zury Ríos;El segundo: Aníbal García;Roberto González;Jimmy Morales;Miguel Ángel Sandoval;Lizardo Sosa;El tercero: Sandra Torres;José López Camposeco;Juan Gutiérrez;Mario Estrada</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
@@ -44436,7 +44415,7 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>Sandra Torres;Jimmy Morales; Aníbal García;Alejandro Giammattei;José Ángel López;Luis Fernando Pérez;Lizardo Sosa;Miguel Ángel Sandoval;Roberto González;x</t>
+          <t>Sandra Torres;Jimmy Morales; Aníbal García;Alejandro Giammattei;José Ángel López;Luis Fernando Pérez;Lizardo Sosa;Miguel Ángel Sandoval;Roberto González;sin datos</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
@@ -45833,7 +45812,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>José Luis Chea Urruela;Luis Velásquez;Fredy Cabrera;Aníbal García;(por el partido victoria está el candidato a la vicepresidencia)Erico Can</t>
+          <t>José Luis Chea Urruela;Luis Velásquez;Fredy Cabrera;Aníbal García;Erico Can</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
@@ -46258,11 +46237,11 @@
         </is>
       </c>
       <c r="O237">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>20 junio: Sandra Torres;Zury Ríos;Edmond Mulet;Manuel Conde Orellana;12 junio: Armando Castillo;Amílcar PopXXXRivera;Álvaro Trujillo;Giulio Talamonti;31 mayo: Giovanni Reyes;Giulio Talamonti;Rudio Lecsan Mérida;30 mayo: Álvaro Trujillo;Amílcar Pop;Armando Castillo;29 mayo: Luis Lam;Julio Rivera Clavería;22 de mayo: Almícar Rivera Victoria;Manuel Villacorta;Ricardo Sagastume;18 de mayo: Sandra Torres;Zury Ríos;Edmond Mulet;Manuel Conde Orellana;17 mayo: Rudio Lecsan Mérida;Giovanni Reyes;Giulio Talamonti;16 mayo: Álvaro Trujillo;Amílcar Pop;Armando Castillo;15 mayo: Julio Rivera Clavería;Luis Lam;Rudy Guzmán;4 mayo: Sandra Torres;Zury Ríos;Edmond Mulet;Manuel Conde Orellana;27 abril: Sandra Torres;Edmond Mulet;Manuel Conde Orellana;</t>
+          <t>20 junio: Sandra Torres;Zury Ríos;Edmond Mulet;Manuel Conde Orellana;12 junio: Armando Castillo;Amílcar Pop;Álvaro Trujillo;Giulio Talamonti;31 mayo: Giovanni Reyes;Giulio Talamonti;Rudio Lecsan Mérida;30 mayo: Álvaro Trujillo;Amílcar Pop;Armando Castillo;29 mayo: Luis Lam;Julio Rivera Clavería;22 de mayo: Amílcar Rivera Victoria;Manuel Villacorta;Ricardo Sagastume;18 de mayo: Sandra Torres;Zury Ríos;Edmond Mulet;Manuel Conde Orellana;17 mayo: Rudio Lecsan Mérida;Giovanni Reyes;Giulio Talamonti;16 mayo: Álvaro Trujillo;Amílcar Pop;Armando Castillo;15 mayo: Julio Rivera Clavería;Luis Lam;Rudy Guzmán;4 mayo: Sandra Torres;Zury Ríos;Edmond Mulet;Manuel Conde Orellana;27 abril: Sandra Torres;Edmond Mulet;Manuel Conde Orellana</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -46343,7 +46322,7 @@
         <v>3</v>
       </c>
       <c r="AJ237">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK237" t="inlineStr">
         <is>
@@ -46422,7 +46401,7 @@
         <v>22</v>
       </c>
       <c r="BA237">
-        <v>1.954545454545455</v>
+        <v>1.909090909090909</v>
       </c>
     </row>
     <row r="238">
@@ -46474,7 +46453,7 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>el primero: Francisco Arredondo;Geovanni Reyes;el segundo: Bernardo Arévalo;Luis Lam;el tercero: Ricardo Sagastume;Hugo Peña;Giulio Talamonti;Julio Rivera Clavería</t>
+          <t>el primero: Francisco Arredondo;Giovanni Reyes;el segundo: Bernardo Arévalo;Luis Lam;el tercero: Ricardo Sagastume;Hugo Peña;Giulio Talamonti;Julio Rivera Clavería</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
@@ -47870,7 +47849,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>Sandra Torres;Zury Ríos;Edmond Mulet;Bernardo Arévalo;Manuel Conde Orellana;Amílcar Rivera;Manuel Villacorta;Luis Lam;Samuel Morales;Rudy Guzmán;Giulio Talamonti;Almícar Pop;Julio Rivera Clavería;Rudio Lecsan Mérida;Isaac Farchi;Ricardo Sagastume</t>
+          <t>Sandra Torres;Zury Ríos;Edmond Mulet;Bernardo Arévalo;Manuel Conde Orellana;Amílcar Rivera;Manuel Villacorta;Luis Lam;Samuel Morales;Rudy Guzmán;Giulio Talamonti;Amílcar Pop;Julio Rivera Clavería;Rudio Lecsan Mérida;Isaac Farchi;Ricardo Sagastume</t>
         </is>
       </c>
       <c r="U245" t="inlineStr">
@@ -48911,7 +48890,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>Orle Aníbal Solís;Romeo Vázquez Velázquez;Mauricio Villeda Bermúdez;Salvador Nasralla;Iris Xiomara Castro de Zelaya;Jorge Rafael Aguilar;Andrés Pavón Murillo;Juan Orlando Hernández</t>
+          <t>Orle Aníbal Solís;Romeo Vásquez Velázquez;Mauricio Villeda Bermúdez;Salvador Nasralla;Iris Xiomara Castro de Zelaya;Jorge Rafael Aguilar;Andrés Pavón Murillo;Juan Orlando Hernández</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
@@ -49122,7 +49101,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>José Alfonso Díaz Narváez;Salvador Nasralla;Eliseo Vallecillo Reyes;Lucas Evangelisto Aguilera;Luis Orlando Zelaya;Romeo Orlando Vásquez Velásquez;Isaías Fonseca Aguilar</t>
+          <t>José Alfonso Díaz Narváez;Salvador Nasralla;Eliseo Vallecillo Reyes;Lucas Evangelisto Aguilera;Luis Orlando Zelaya;Romeo Vásquez Velásquez;Isaías Fonseca Aguilar</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
@@ -50538,7 +50517,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>Álvaro Uribe Vélez;Noemí Sanín Posada;Luis Eduardo Garzón;Horacio Serpa Uribe</t>
+          <t>Álvaro Uribe Vélez;Noemí Sanín;Luis Eduardo Garzón;Horacio Serpa</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr">
@@ -52183,7 +52162,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>Gustavo Petro;Germán Vargas;Noemí Sanín;Juan Manuel Santos;Rafael Pardo;Antanas Mockus</t>
+          <t>Gustavo Petro;Germán Vargas Lleras;Noemí Sanín;Juan Manuel Santos;Rafael Pardo;Antanas Mockus</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
@@ -55224,7 +55203,7 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>Humberto De La Calle;Gustavo Petro;Sergio Fajardo</t>
+          <t>Humberto de la Calle;Gustavo Petro;Sergio Fajardo</t>
         </is>
       </c>
       <c r="Q284" t="inlineStr">
@@ -55423,7 +55402,7 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>Gustavo Petro;Iván Duque;Germán Vargas Lleras;Humberto De la Calle</t>
+          <t>Gustavo Petro;Iván Duque;Germán Vargas Lleras;Humberto de la Calle</t>
         </is>
       </c>
       <c r="Q285" t="inlineStr">
@@ -55847,7 +55826,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>Humberto De la Calle;Sergio Fajardo;Iván Duque;Germán Vargas</t>
+          <t>Humberto de la Calle;Sergio Fajardo;Iván Duque;Germán Vargas</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr">
@@ -56263,7 +56242,7 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>Humberto de la Calle Lombana</t>
+          <t>Humberto de la Calle</t>
         </is>
       </c>
       <c r="S289">
@@ -59448,7 +59427,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>Ingrid Batancourt;Sergio Fajardo;John Milton Rodríguez;Federico Gutiérrez;Enrique Gómez;Luis Pérez</t>
+          <t>Ingrid Betancourt;Sergio Fajardo;John Milton Rodríguez;Federico Gutiérrez;Enrique Gómez;Luis Pérez</t>
         </is>
       </c>
       <c r="Q304" t="inlineStr">
@@ -59658,7 +59637,7 @@
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>Rodolfo Hernández;Ingrid Batancourt;John Milton Rodríguez;Federico Gutiérrez;Enrique Gómez;Luis Pérez</t>
+          <t>Rodolfo Hernández;Ingrid Betancourt;John Milton Rodríguez;Federico Gutiérrez;Enrique Gómez;Luis Pérez</t>
         </is>
       </c>
       <c r="Q305" t="inlineStr">
@@ -60113,7 +60092,7 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>Ingrid Batancourt;John Milton Rodríguez</t>
+          <t>Ingrid Betancourt;John Milton Rodríguez</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr">
@@ -60783,7 +60762,7 @@
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>Enrique Gómez;Rodolfo Hernández;Ingrid Batancourt;John Milton Rodríguez;Federico Gutiérrez;Sergio Fajardo</t>
+          <t>Enrique Gómez;Rodolfo Hernández;Ingrid Betancourt;John Milton Rodríguez;Federico Gutiérrez;Sergio Fajardo</t>
         </is>
       </c>
       <c r="Q310" t="inlineStr">
@@ -61693,7 +61672,7 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>Gustavo Petro;Sergio Fajardo;Ingrid Bentacourt;Luis Pérez</t>
+          <t>Gustavo Petro;Sergio Fajardo;Ingrid Betancourt;Luis Pérez</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -63809,7 +63788,7 @@
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Rolando Araya Monge;Otto Guevara;Abel Pacheco de la Espriella;Ottón Solís</t>
+          <t>Rolando Araya;Otto Guevara;Abel Pacheco de la Espriella;Ottón Solís</t>
         </is>
       </c>
       <c r="Q326" t="inlineStr">
@@ -64016,7 +63995,7 @@
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>Abel Pacheco de la Espriella;Rolando Araya Monge</t>
+          <t>Abel Pacheco de la Espriella;Rolando Araya</t>
         </is>
       </c>
       <c r="Q327" t="inlineStr">
@@ -64223,7 +64202,7 @@
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>Abel Pacheco de la Espriella;Rolando Araya Monge</t>
+          <t>Abel Pacheco de la Espriella;Rolando Araya</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
@@ -64415,7 +64394,7 @@
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>Abel Pacheco de la Espriella;Rolando Araya Monge</t>
+          <t>Abel Pacheco de la Espriella;Rolando Araya</t>
         </is>
       </c>
       <c r="Q329" t="inlineStr">
@@ -64622,7 +64601,7 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>primera:  Humberto Arce;Ottón Solís;Otto Guevara;segunda: Abel Pacheco de la Espirella;Álvaro Montero;Ricardo Toledo;tercera: Vladimir de la Cruz de Lemos;Bolívar Serrano Hidalgo;José Manuel Echandi Meza;cuarta:  Antonio Álvarez Desanti;Walter Muñoz Céspedes;Juan José Vargas Fallas;José Miguel Villalobos Umaña</t>
+          <t>primera: Humberto Arce;Ottón Solís;Otto Guevara;segunda: Abel Pacheco de la Espirella;Álvaro Montero;Ricardo Toledo;tercera: Vladimir de la Cruz de Lemos;Bolívar Serrano Hidalgo;José Manuel Echandi;cuarta:  Antonio Álvarez Desanti;Walter Muñoz;Juan José Vargas Fallas;José Miguel Villalobos</t>
         </is>
       </c>
       <c r="Q330" t="inlineStr">
@@ -64831,7 +64810,7 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>en el primero: Juan José Vargas;Álvaro Montero;Bolívar Serrano;José Miguel Villalobos;Humberto Vargas;en el segundo: Ottón Solís;Otto Guevara;Óscar Arias;Antonio Álvarez;Ricardo Toledo;en el tercero: José Manuel Echandi;Humberto Arce;Wálter Muñoz;Vladimir de la Cruz</t>
+          <t>en el primero: Juan José Vargas;Álvaro Montero;Bolívar Serrano Hidalgo;José Miguel Villalobos;Humberto Vargas;en el segundo: Ottón Solís;Otto Guevara;Óscar Arias;Antonio Álvarez Desanti;Ricardo Toledo;en el tercero: José Manuel Echandi;Humberto Arce;Wálter Muñoz;Vladimir de la Cruz</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
@@ -65025,7 +65004,7 @@
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>primero: Carlos Alvarado Quesada;Otto Guevara;Edgardo Araya;Mario Redondo Poveda;Rodolfo Hernández Gómez;Antonio Álvarez Desanti; segundo: Fabricio Alvarado;Oscar López;Sergio Mena;John Vega</t>
+          <t>primero: Carlos Alvarado Quesada;Otto Guevara;Edgardo Araya;Mario Redondo Poveda;Rodolfo Hernández;Antonio Álvarez Desanti; segundo: Fabricio Alvarado Muñoz;Oscar López;Sergio Mena;Jhon Vega</t>
         </is>
       </c>
       <c r="Q332" t="inlineStr">
@@ -66062,12 +66041,12 @@
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>primero: Johnny Araya;José Miguel Corrales;Otto Guevara;Rodolfo Piza;Luis Guillermo Solís;José María Villalta; segundo: José Manuel Echandi;Héctor Monestel;Sergio Mena</t>
+          <t>primero: Johnny Araya;José Miguel Corrales Bolaños;Otto Guevara;Rodolfo Piza;Luis Guillermo Solís;José María Villalta; segundo: José Manuel Echandi;Héctor Monestel;Sergio Mena</t>
         </is>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>Carlos Luis Avendaño;Oscar López;Walter Muñoz; Justo Orozco</t>
+          <t>Carlos Avendaño;Oscar López;Walter Muñoz; Justo Orozco</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -66269,7 +66248,7 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>primer bloque: Sergio Mena;José Miguel Corrales;Oscar López;Héctor Monestel;segundo bloque: Otto Guevara;Rodolfo Piza;Luis Guillermo Solis;Jose María Villalta</t>
+          <t>primer bloque: Sergio Mena;José Miguel Corrales Bolaños;Oscar López;Héctor Monestel;segundo bloque: Otto Guevara;Rodolfo Piza;Luis Guillermo Solis;Jose María Villalta</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr">
@@ -66468,7 +66447,7 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>primero: Hector Menestel Herrera;Jose Miguel Corrales Bolaños;Luis Guillermo Solís Rivera;Carlos Avendaño Carlo;Otto Guevara;Walter Muñoz Céspedes;segundo: Óscar López;José María Villalta; José Manuel Echandi;Johnny Araya;Justo Orozco;Rodolfo Piza;Sergio Mena</t>
+          <t>primero: Hector Menestel Herrera;Jose Miguel Corrales Bolaños;Luis Guillermo Solís;Carlos Avendaño;Otto Guevara;Walter Muñoz;segundo: Óscar López;José María Villalta; José Manuel Echandi;Johnny Araya;Justo Orozco;Rodolfo Piza;Sergio Mena</t>
         </is>
       </c>
       <c r="Q339" t="inlineStr">
@@ -67249,7 +67228,7 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Luis Guillermo Solís;José María Villata;Rodolfo Jhonny Araya;Otto Guevara;Piza</t>
+          <t>Luis Guillermo Solís;José María Villalta;Rodolfo Jhonny Araya;Otto Guevara;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr">
@@ -67658,7 +67637,7 @@
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>Luis Guillermo Solís;José María Villalta;José Miguel Corrales;Otto Guevara</t>
+          <t>Luis Guillermo Solís;José María Villalta;José Miguel Corrales Bolaños;Otto Guevara</t>
         </is>
       </c>
       <c r="Q345" t="inlineStr">
@@ -67858,16 +67837,16 @@
         </is>
       </c>
       <c r="O346">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>Héctor Monestel;José Miguel Corales;Walter Muñoz;Óscar López;José María Villalta;José Manuel Echandi;Justo Orozco;Sergio Mena</t>
+          <t>Héctor Monestel;Walter Muñoz;Óscar López;José María Villalta;José Manuel Echandi;Justo Orozco;Sergio Mena</t>
         </is>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>José Miguel Corrales;Héctor Monestel;José Manuel Echandi;Walter Muñoz;Sergio Mena</t>
+          <t>José Miguel Corrales Bolaños;Héctor Monestel;José Manuel Echandi;Walter Muñoz;Sergio Mena</t>
         </is>
       </c>
       <c r="U346" t="inlineStr">
@@ -67925,7 +67904,7 @@
         <v>5</v>
       </c>
       <c r="AJ346">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK346" t="inlineStr">
         <is>
@@ -68004,7 +67983,7 @@
         <v>13</v>
       </c>
       <c r="BA346">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="347">
@@ -68056,12 +68035,12 @@
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>primer bloque: Carlos Alvarado;Otto Guevara;Rodolfo Hernández;Stephanie Campos;Mario Redondo; segundo bloque:  Jhon Vega;Edgardo Araya;Sergio Mena</t>
+          <t>primer bloque: Carlos Alvarado Quesada;Otto Guevara;Rodolfo Hernández;Stephanie Campos;Mario Redondo Poveda; segundo bloque: Jhon Vega;Edgardo Araya;Sergio Mena</t>
         </is>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>Antonio Álvarez Desanti;Óscar López;Fabricio Alvarado;Rodolfo Piza;Juan Diego Castro</t>
+          <t>Antonio Álvarez Desanti;Óscar López;Fabricio Alvarado Muñoz;Rodolfo Piza;Juan Diego Castro</t>
         </is>
       </c>
       <c r="U347" t="inlineStr">
@@ -68260,12 +68239,12 @@
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>Antonio Álvarez Desanti;Sergio Mena;John Vega;Óscar López;Carlos Alvarado;Rodolfo Hernández;Fabricio Alvarado</t>
+          <t>Antonio Álvarez Desanti;Sergio Mena;Jhon Vega;Óscar López;Carlos Alvarado Quesada;Rodolfo Hernández;Fabricio Alvarado</t>
         </is>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>Mario Redondo;Otto Guevara;Rodolfo Piza;Juan Diego Castro</t>
+          <t>Mario Redondo Poveda;Otto Guevara;Rodolfo Piza;Juan Diego Castro</t>
         </is>
       </c>
       <c r="U348" t="inlineStr">
@@ -68464,7 +68443,7 @@
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q349" t="inlineStr">
@@ -68668,7 +68647,7 @@
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>primero: Mario Redondo Poveda;Oscar López;Edgardo Araya;Juan Diego Castro Fernández;Antonio Álvarez Desanti;Sergio Mena Díaz;Fabricio Alvarado; segundo: Rodolfo Hernández;Carlos Alvarado Quesada;Jhon Vega;Rodolfo Piza;Otto Guevara Guth;Stephanie Campos Arrieta</t>
+          <t>primero: Mario Redondo Poveda;Oscar López;Edgardo Araya;Juan Diego Castro Fernández;Antonio Álvarez Desanti;Sergio Mena;Fabricio Alvarado Muñoz; segundo: Rodolfo Hernández;Carlos Alvarado Quesada;Jhon Vega;Rodolfo Piza;Otto Guevara;Stephanie Campos</t>
         </is>
       </c>
       <c r="Q350" t="inlineStr">
@@ -68875,7 +68854,7 @@
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q351" t="inlineStr">
@@ -69074,7 +69053,7 @@
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Carlos Alvarado Quesada;Juan Diego Castro Fernández;Antonio Álvarez Desanti;Rodolfo Hernández Gómez;Fabricio Alvarado Muñoz;Rodolfo Piza Rocafort</t>
+          <t>Carlos Alvarado Quesada;Juan Diego Castro Fernández;Antonio Álvarez Desanti;Rodolfo Hernández;Fabricio Alvarado Muñoz;Rodolfo Piza Rocafort</t>
         </is>
       </c>
       <c r="Q352" t="inlineStr">
@@ -69268,7 +69247,7 @@
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr">
@@ -69631,7 +69610,7 @@
       </c>
       <c r="P355" t="inlineStr">
         <is>
-          <t>Stephanie Campos Arrieta;Mario Redondo Poveda;Jhon Vega;Edgardo Araya;Oscar López;Otto Guevara;Sergio Mena Díaz</t>
+          <t>Stephanie Campos;Mario Redondo Poveda;Jhon Vega;Edgardo Araya;Oscar López;Otto Guevara;Sergio Mena</t>
         </is>
       </c>
       <c r="Q355" t="inlineStr">
@@ -69833,7 +69812,7 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>Carlos Alvarado;Rodolfo Piza;Juan Diego Castro;Antonio Álvarez Desanti;Fabricio Alvarado</t>
+          <t>Carlos Alvarado Quesada;Rodolfo Piza;Juan Diego Castro Fernández;Antonio Álvarez Desanti;Fabricio Alvarado</t>
         </is>
       </c>
       <c r="Q356" t="inlineStr">
@@ -70042,7 +70021,7 @@
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>Rodolfo Piza;Fabricio Alvarado;Antonio Álvarez Desanti;Edgardo Araya;Rodolfo Hernández;Juan Diego Castro</t>
+          <t>Rodolfo Piza;Fabricio Alvarado Muñoz;Antonio Álvarez Desanti;Edgardo Araya;Rodolfo Hernández;Juan Diego Castro</t>
         </is>
       </c>
       <c r="Q357" t="inlineStr">
@@ -70259,7 +70238,7 @@
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q358" t="inlineStr">
@@ -70468,7 +70447,7 @@
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>primero: Carlos Alvarado Quesada;Antonio Álvarez Desanti;Edgardo Araya Sibaja; segundo:  Jhonn Vega Masis;Stephanie Campos Arrieta;Rodolfo Hernández Gómez;Sergio Mena Díaz;Mario Redondo Poveda</t>
+          <t>primero: Carlos Alvarado Quesada;Antonio Álvarez Desanti;Edgardo Araya; segundo: Jhon Vega;Stephanie Campos;Rodolfo Hernández;Sergio Mena;Mario Redondo Poveda</t>
         </is>
       </c>
       <c r="Q359" t="inlineStr">
@@ -70685,7 +70664,7 @@
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>Edgardo Araya;Carlos Alvarado;Antonio Álvarez Desanti;Juan Diego Castro;Otto Guevara;Rodolfo Piza</t>
+          <t>Edgardo Araya;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro Fernández;Otto Guevara;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q360" t="inlineStr">
@@ -70887,12 +70866,12 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>Carlos Alvarado Quesada;Mario Redondo Poveda;Jhonn Vega Masis;Sergio Mena Díaz;Oscar López;Otto Guevara;Edgardo Araya;Stephanie Campos Arrieta;Fabricio Alvarado</t>
+          <t>Carlos Alvarado Quesada;Mario Redondo Poveda;Jhon Vega;Sergio Mena;Oscar López;Otto Guevara;Edgardo Araya;Stephanie Campos;Fabricio Alvarado</t>
         </is>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>Antonio Álvarez Desanti;Rodolfo Piza;Juan Diego Castro;Rodolfo Hernández</t>
+          <t>Antonio Álvarez Desanti;Rodolfo Piza;Juan Diego Castro Fernández;Rodolfo Hernández</t>
         </is>
       </c>
       <c r="S361">
@@ -71084,7 +71063,7 @@
       </c>
       <c r="P362" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q362" t="inlineStr">
@@ -71281,7 +71260,7 @@
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro;Rodolfo Hernández;Rodolfo Piza</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro Fernández;Rodolfo Hernández;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q363" t="inlineStr">
@@ -71478,7 +71457,7 @@
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
@@ -71680,7 +71659,7 @@
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>Carlos Alvarado Quesada;Antonio Álvarez De Santis;Edgardo Araya;Mario Arredondo;Otto Guevara</t>
+          <t>Carlos Alvarado Quesada;Antonio Álvarez Desanti;Edgardo Araya;Mario Redondo Poveda;Otto Guevara</t>
         </is>
       </c>
       <c r="Q365" t="inlineStr">
@@ -71882,7 +71861,7 @@
       </c>
       <c r="P366" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q366" t="inlineStr">
@@ -72086,7 +72065,7 @@
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q367" t="inlineStr">
@@ -72305,7 +72284,7 @@
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado;Carlos Alvarado Quesada</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada</t>
         </is>
       </c>
       <c r="Q368" t="inlineStr">
@@ -72524,7 +72503,7 @@
       </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>Carlos Alvarado Quesada;Rodolfo Hernández;Otto Guevara;Fabricio Alvarado;Edgardo Araya</t>
+          <t>Carlos Alvarado Quesada;Rodolfo Hernández;Otto Guevara;Fabricio Alvarado Muñoz;Edgardo Araya</t>
         </is>
       </c>
       <c r="Q369" t="inlineStr">
@@ -72730,7 +72709,7 @@
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>el primero: Rodrigo Chaves;Walter Muñoz;Welmer Ramos;Christian Rivera;eJosé María Villalta;Rodolfo Piza; el segundo: Oscar Campos;Luis Alberto Cordero Arias;Natalia Díaz;Rodolfo Hernández;Oscar López;Federico Malavassi;Sergio Mena;Jhon Vega; el tercero: Eduardo Cruickshank;Grevin Moya;Roulan Jiménez;Eliecer Feinzaig; Carmen Quesada;Martín Chinchilla;Maricela Morales</t>
+          <t>el primero: Rodrigo Chaves;Walter Muñoz;Welmer Ramos;Christian Rivera;eJosé María Villalta;Rodolfo Piza; el segundo: Oscar Campos;Luis Alberto Cordero;Natalia Díaz;Rodolfo Hernández;Oscar López;Federico Malavassi;Sergio Mena;Jhon Vega; el tercero: Eduardo Cruickshank;Greivin Moya;Roulan Jiménez;Eliecer Feinzaig; Carmen Quesada;Martín Chinchilla;Maricela Morales</t>
         </is>
       </c>
       <c r="Q370" t="inlineStr">
@@ -73385,7 +73364,7 @@
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>José María Villalta;Eli Feinzaig;Rodolfo Hernández</t>
+          <t>José María Villalta;Eliecer Feinzaig;Rodolfo Hernández</t>
         </is>
       </c>
       <c r="Q373" t="inlineStr">
@@ -73596,7 +73575,7 @@
       </c>
       <c r="P374" t="inlineStr">
         <is>
-          <t>el primero: Welmer Ramos;Fabricio Alvarado Muñoz;Federico Malavassi;Carmen Quesada;Grevin Moya;Martín Chinchilla; segundo: Lineth Saborío;Rodolfo Hernández;Luis Alberto Cordero;Eduardo Cruickshank;Rodrigo Chaves;Eliecer Feinzaig; el tercero: Christian Rivera;Maricela Morales;Roulan Jiménez;Sergio Mena;Rolando Araya;Oscar López; el cuarto:      Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza;Jhon Vega;José María Villalta</t>
+          <t>el primero: Welmer Ramos;Fabricio Alvarado Muñoz;Federico Malavassi;Carmen Quesada;Greivin Moya;Martín Chinchilla; segundo: Lineth Saborío;Rodolfo Hernández;Luis Alberto Cordero;Eduardo Cruickshank;Rodrigo Chaves;Eliecer Feinzaig; el tercero: Christian Rivera;Maricela Morales;Roulan Jiménez;Sergio Mena;Rolando Araya;Oscar López; el cuarto: Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza;Jhon Vega;José María Villalta</t>
         </is>
       </c>
       <c r="Q374" t="inlineStr">
@@ -74460,12 +74439,12 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>el primero:  Welmer Ramos;Federico Malavassi;Carmen Quesada;Martín Chinchilla; el segundo: Eliecer Feinzaig;Christian Rivera;Roulan Jiménez;Sergio Mena;Rodrigo Chaves; el tercero: John Vega</t>
+          <t>el primero:  Welmer Ramos;Federico Malavassi;Carmen Quesada;Martín Chinchilla; el segundo: Eliecer Feinzaig;Christian Rivera;Roulan Jiménez;Sergio Mena;Rodrigo Chaves; el tercero: Jhon Vega</t>
         </is>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>al primero: Fabricio Alvarado Muñoz;Greivin Moya;Lineth Saborío;Rodlfo Hernández; al segundo: Luis Alberto Cordero;Eduardo Cruickshank;Maricela Morales; al tercero: Rolando Araya;Oscar López;Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza;José María Villalta</t>
+          <t>al primero: Fabricio Alvarado Muñoz;Greivin Moya;Lineth Saborío;Rodolfo Hernández; al segundo: Luis Alberto Cordero;Eduardo Cruickshank;Maricela Morales; al tercero: Rolando Araya;Oscar López;Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza;José María Villalta</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -74915,7 +74894,7 @@
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t>el primero: Federico Malavassi;Gerardo Chaves;Sergio Mena;Christian Rivera;Roulan Jiménez;Oscar Campos;Walter Quesada;Gabriela San Román; el segundo: John Vega;Maricela Morales;Sebastián Urbina;Ana Lupita Mora;Vanessa Calvo</t>
+          <t>el primero: Federico Malavassi;Gerardo Chaves;Sergio Mena;Christian Rivera;Roulan Jiménez;Oscar Campos;Walter Quesada;Gabriela San Román; el segundo: Jhon Vega;Maricela Morales;Sebastián Urbina;Ana Lupita Mora;Vanessa Calvo</t>
         </is>
       </c>
       <c r="Q380" t="inlineStr">
@@ -77477,7 +77456,7 @@
       </c>
       <c r="P392" t="inlineStr">
         <is>
-          <t>Parker;Guardado;Zamora;García</t>
+          <t>Rodolfo Parker;FacundoGuardado;Rubén Zamora;Salvador Néstor García</t>
         </is>
       </c>
       <c r="Q392" t="inlineStr">

--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -15,9 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,13 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +362,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -647,7 +644,7 @@
         <v>1989</v>
       </c>
       <c r="D2" s="2">
-        <v>616636800</v>
+        <v>32706</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -660,8 +657,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H2" s="3">
-        <v>1.074166666665406</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -864,7 +863,7 @@
         <v>1989</v>
       </c>
       <c r="D3" s="2">
-        <v>626832000</v>
+        <v>32824</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -877,8 +876,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H3" s="3">
-        <v>1.095000000001164</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1081,7 +1082,7 @@
         <v>1989</v>
       </c>
       <c r="D4" s="2">
-        <v>626227200</v>
+        <v>32817</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1094,8 +1095,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H4" s="3">
-        <v>1.081111111110658</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.902777777777778</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1290,7 +1293,7 @@
         <v>1989</v>
       </c>
       <c r="D5" s="2">
-        <v>619056000</v>
+        <v>32734</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1303,8 +1306,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H5" s="3">
-        <v>1.074166666665406</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1509,7 +1514,7 @@
         <v>1989</v>
       </c>
       <c r="D6" s="2">
-        <v>624499200</v>
+        <v>32797</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1522,8 +1527,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H6" s="3">
-        <v>1.053333333333285</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1721,7 +1728,7 @@
         <v>1989</v>
       </c>
       <c r="D7" s="2">
-        <v>616896000</v>
+        <v>32709</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1734,8 +1741,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H7" s="3">
-        <v>1.129722222223791</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.951388888888889</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1932,7 +1941,7 @@
         <v>1989</v>
       </c>
       <c r="D8" s="2">
-        <v>628646400</v>
+        <v>32845</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1945,8 +1954,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H8" s="3">
-        <v>1.074166666665406</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2154,7 +2165,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="2">
-        <v>629596800</v>
+        <v>32856</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2167,8 +2178,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H9" s="3">
-        <v>1.074166666665406</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2368,7 +2381,7 @@
         <v>1994</v>
       </c>
       <c r="D10" s="2">
-        <v>775094400</v>
+        <v>34540</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2381,8 +2394,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H10" s="3">
-        <v>1.115833333333285</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2577,7 +2592,7 @@
         <v>1994</v>
       </c>
       <c r="D11" s="2">
-        <v>777686400</v>
+        <v>34570</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2590,8 +2605,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H11" s="3">
-        <v>1.115833333333285</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2796,7 +2813,7 @@
         <v>1994</v>
       </c>
       <c r="D12" s="2">
-        <v>777081600</v>
+        <v>34563</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2809,8 +2826,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H12" s="3">
-        <v>1.115833333333285</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3005,7 +3024,7 @@
         <v>2002</v>
       </c>
       <c r="D13" s="2">
-        <v>1028419200</v>
+        <v>37472</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3204,7 +3223,7 @@
         <v>2002</v>
       </c>
       <c r="D14" s="2">
-        <v>1030924800</v>
+        <v>37501</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3390,7 +3409,7 @@
         <v>2002</v>
       </c>
       <c r="D15" s="2">
-        <v>1033603200</v>
+        <v>37532</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3403,8 +3422,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H15" s="3">
-        <v>1.095000000001164</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3597,7 +3618,7 @@
         <v>2002</v>
       </c>
       <c r="D16" s="2">
-        <v>1035504000</v>
+        <v>37554</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3793,7 +3814,7 @@
         <v>2006</v>
       </c>
       <c r="D17" s="2">
-        <v>1155513600</v>
+        <v>38943</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3806,8 +3827,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H17" s="3">
-        <v>1.053333333333285</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -4002,7 +4025,7 @@
         <v>2006</v>
       </c>
       <c r="D18" s="2">
-        <v>1158192000</v>
+        <v>38974</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4013,6 +4036,11 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Durante a madrugada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4151,7 +4179,7 @@
         <v>2006</v>
       </c>
       <c r="D19" s="2">
-        <v>1159401600</v>
+        <v>38988</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4164,8 +4192,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H19" s="3">
-        <v>1.115833333333285</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -4343,7 +4373,7 @@
         <v>2006</v>
       </c>
       <c r="D20" s="2">
-        <v>1160265600</v>
+        <v>38998</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4356,8 +4386,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H20" s="3">
-        <v>1.032500000001164</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.854166666666667</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -4542,7 +4574,7 @@
         <v>2006</v>
       </c>
       <c r="D21" s="2">
-        <v>1161216000</v>
+        <v>39009</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4555,8 +4587,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H21" s="3">
-        <v>1.053333333333285</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -4741,7 +4775,7 @@
         <v>2006</v>
       </c>
       <c r="D22" s="2">
-        <v>1161561600</v>
+        <v>39013</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4754,8 +4788,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H22" s="3">
-        <v>1.136666666665406</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.958333333333333</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -4930,7 +4966,7 @@
         <v>2006</v>
       </c>
       <c r="D23" s="2">
-        <v>1161907200</v>
+        <v>39017</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4943,8 +4979,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H23" s="3">
-        <v>1.115833333333285</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5132,7 +5170,7 @@
         <v>2010</v>
       </c>
       <c r="D24" s="2">
-        <v>1280966400</v>
+        <v>40395</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5145,8 +5183,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H24" s="3">
-        <v>1.053333333333285</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5347,7 +5387,7 @@
         <v>2010</v>
       </c>
       <c r="D25" s="2">
-        <v>1282089600</v>
+        <v>40408</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5566,7 +5606,7 @@
         <v>2010</v>
       </c>
       <c r="D26" s="2">
-        <v>1282521600</v>
+        <v>40413</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5579,8 +5619,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H26" s="3">
-        <v>1.095000000001164</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5780,7 +5822,7 @@
         <v>2010</v>
       </c>
       <c r="D27" s="2">
-        <v>1283904000</v>
+        <v>40429</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5793,8 +5835,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H27" s="3">
-        <v>1.136666666665406</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.958333333333333</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5995,7 +6039,7 @@
         <v>2010</v>
       </c>
       <c r="D28" s="2">
-        <v>1284249600</v>
+        <v>40433</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6008,8 +6052,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H28" s="3">
-        <v>1.053333333333285</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -6211,7 +6257,7 @@
         <v>2010</v>
       </c>
       <c r="D29" s="2">
-        <v>1284940800</v>
+        <v>40441</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6224,8 +6270,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H29" s="3">
-        <v>1.074166666665406</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -6428,7 +6476,7 @@
         <v>2010</v>
       </c>
       <c r="D30" s="2">
-        <v>1285200000</v>
+        <v>40444</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6441,8 +6489,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H30" s="3">
-        <v>1.074166666665406</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -6642,7 +6692,7 @@
         <v>2010</v>
       </c>
       <c r="D31" s="2">
-        <v>1285459200</v>
+        <v>40447</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -6655,8 +6705,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H31" s="3">
-        <v>1.053333333333285</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6851,7 +6903,7 @@
         <v>2010</v>
       </c>
       <c r="D32" s="2">
-        <v>1285804800</v>
+        <v>40451</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -6864,8 +6916,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H32" s="3">
-        <v>1.115833333333285</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -7057,7 +7111,7 @@
         <v>2010</v>
       </c>
       <c r="D33" s="2">
-        <v>1286668800</v>
+        <v>40461</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -7070,8 +7124,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H33" s="3">
-        <v>1.095000000001164</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -7262,7 +7318,7 @@
         <v>2010</v>
       </c>
       <c r="D34" s="2">
-        <v>1287273600</v>
+        <v>40468</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -7275,8 +7331,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H34" s="3">
-        <v>1.060277777778538</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.881944444444444</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -7478,7 +7536,7 @@
         <v>2010</v>
       </c>
       <c r="D35" s="2">
-        <v>1287964800</v>
+        <v>40476</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7491,8 +7549,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H35" s="3">
-        <v>1.136666666665406</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.958333333333333</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -7683,7 +7743,7 @@
         <v>2010</v>
       </c>
       <c r="D36" s="2">
-        <v>1288310400</v>
+        <v>40480</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7696,8 +7756,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H36" s="3">
-        <v>1.115833333333285</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -7889,7 +7951,7 @@
         <v>2014</v>
       </c>
       <c r="D37" s="2">
-        <v>1409011200</v>
+        <v>41877</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -7902,8 +7964,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H37" s="3">
-        <v>1.074166666665406</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -8104,7 +8168,7 @@
         <v>2014</v>
       </c>
       <c r="D38" s="2">
-        <v>1409529600</v>
+        <v>41883</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -8117,8 +8181,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H38" s="3">
-        <v>0.9179166666654055</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.739583333333333</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -8319,7 +8385,7 @@
         <v>2014</v>
       </c>
       <c r="D39" s="2">
-        <v>1410825600</v>
+        <v>41898</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8332,8 +8398,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H39" s="3">
-        <v>1.053333333333285</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -8539,7 +8607,7 @@
         <v>2014</v>
       </c>
       <c r="D40" s="2">
-        <v>1411862400</v>
+        <v>41910</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -8552,8 +8620,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H40" s="3">
-        <v>1.053333333333285</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -8760,7 +8830,7 @@
         <v>2014</v>
       </c>
       <c r="D41" s="2">
-        <v>1412208000</v>
+        <v>41914</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8773,8 +8843,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H41" s="3">
-        <v>1.115833333333285</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -8966,7 +9038,7 @@
         <v>2014</v>
       </c>
       <c r="D42" s="2">
-        <v>1413244800</v>
+        <v>41926</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8979,8 +9051,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H42" s="3">
-        <v>1.095000000001164</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -9176,7 +9250,7 @@
         <v>2014</v>
       </c>
       <c r="D43" s="2">
-        <v>1413417600</v>
+        <v>41928</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -9189,8 +9263,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H43" s="3">
-        <v>1.060277777778538</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.881944444444444</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -9385,7 +9461,7 @@
         <v>2014</v>
       </c>
       <c r="D44" s="2">
-        <v>1413676800</v>
+        <v>41931</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -9398,8 +9474,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H44" s="3">
-        <v>1.136666666665406</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.958333333333333</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -9595,7 +9673,7 @@
         <v>2014</v>
       </c>
       <c r="D45" s="2">
-        <v>1414108800</v>
+        <v>41936</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -9608,8 +9686,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H45" s="3">
-        <v>1.115833333333285</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -9801,7 +9881,7 @@
         <v>2018</v>
       </c>
       <c r="D46" s="2">
-        <v>1533772800</v>
+        <v>43321</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -9814,8 +9894,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H46" s="3">
-        <v>1.074166666665406</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -10021,7 +10103,7 @@
         <v>2018</v>
       </c>
       <c r="D47" s="2">
-        <v>1534464000</v>
+        <v>43329</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -10034,8 +10116,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H47" s="3">
-        <v>1.095000000001164</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -10243,7 +10327,7 @@
         <v>2018</v>
       </c>
       <c r="D48" s="2">
-        <v>1536451200</v>
+        <v>43352</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -10256,8 +10340,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H48" s="3">
-        <v>1.136666666665406</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.958333333333333</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -10463,7 +10549,7 @@
         <v>2018</v>
       </c>
       <c r="D49" s="2">
-        <v>1537401600</v>
+        <v>43363</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -10476,8 +10562,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H49" s="3">
-        <v>1.053333333333285</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -10672,7 +10760,7 @@
         <v>2018</v>
       </c>
       <c r="D50" s="2">
-        <v>1537920000</v>
+        <v>43369</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -10685,8 +10773,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H50" s="3">
-        <v>0.9179166666654055</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.739583333333333</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -10897,7 +10987,7 @@
         <v>2018</v>
       </c>
       <c r="D51" s="2">
-        <v>1538265600</v>
+        <v>43373</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -10910,8 +11000,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H51" s="3">
-        <v>1.053333333333285</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -11102,7 +11194,7 @@
         <v>2018</v>
       </c>
       <c r="D52" s="2">
-        <v>1538438400</v>
+        <v>43375</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -11115,8 +11207,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H52" s="3">
-        <v>1.115833333333285</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -11308,7 +11402,7 @@
         <v>2022</v>
       </c>
       <c r="D53" s="2">
-        <v>1661644800</v>
+        <v>44801</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -11321,8 +11415,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H53" s="3">
-        <v>1.053333333333285</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -11530,7 +11626,7 @@
         <v>2022</v>
       </c>
       <c r="D54" s="2">
-        <v>1663977600</v>
+        <v>44828</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -11543,8 +11639,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H54" s="3">
-        <v>0.9387500000011642</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.760416666666667</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -11747,7 +11845,7 @@
         <v>2022</v>
       </c>
       <c r="D55" s="2">
-        <v>1664409600</v>
+        <v>44833</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -11760,8 +11858,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H55" s="3">
-        <v>1.115833333333285</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -11954,7 +12054,7 @@
         <v>2022</v>
       </c>
       <c r="D56" s="2">
-        <v>1665878400</v>
+        <v>44850</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -11967,8 +12067,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H56" s="3">
-        <v>1.011666666665406</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -12156,7 +12258,7 @@
         <v>2022</v>
       </c>
       <c r="D57" s="2">
-        <v>1666915200</v>
+        <v>44862</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -12169,8 +12271,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H57" s="3">
-        <v>1.074166666665406</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -12348,7 +12452,7 @@
         <v>1989</v>
       </c>
       <c r="D58" s="2">
-        <v>623894400</v>
+        <v>32790</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -12564,7 +12668,7 @@
         <v>1993</v>
       </c>
       <c r="D59" s="2">
-        <v>752198400</v>
+        <v>34275</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -12765,7 +12869,7 @@
         <v>2000</v>
       </c>
       <c r="D60" s="2">
-        <v>941500800</v>
+        <v>36466</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -12979,7 +13083,7 @@
         <v>2006</v>
       </c>
       <c r="D61" s="2">
-        <v>1127692800</v>
+        <v>38621</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -12992,8 +13096,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H61" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -13203,7 +13309,7 @@
         <v>2006</v>
       </c>
       <c r="D62" s="2">
-        <v>1129680000</v>
+        <v>38644</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -13216,8 +13322,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H62" s="3">
-        <v>1.095000000001164</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -13415,7 +13523,7 @@
         <v>2006</v>
       </c>
       <c r="D63" s="2">
-        <v>1132099200</v>
+        <v>38672</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -13621,7 +13729,7 @@
         <v>2006</v>
       </c>
       <c r="D64" s="2">
-        <v>1136332800</v>
+        <v>38721</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -13634,8 +13742,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H64" s="3">
-        <v>1.095000000001164</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -13825,7 +13935,7 @@
         <v>2006</v>
       </c>
       <c r="D65" s="2">
-        <v>1133222400</v>
+        <v>38685</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -13991,7 +14101,7 @@
         <v>2006</v>
       </c>
       <c r="D66" s="2">
-        <v>1130198400</v>
+        <v>38650</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -14174,7 +14284,7 @@
         <v>2010</v>
       </c>
       <c r="D67" s="2">
-        <v>1253836800</v>
+        <v>40081</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -14375,7 +14485,7 @@
         <v>2010</v>
       </c>
       <c r="D68" s="2">
-        <v>1253664000</v>
+        <v>40079</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -14383,8 +14493,10 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="H68" s="3">
-        <v>1.122777777778538</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.944444444444444</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -14574,7 +14686,7 @@
         <v>2010</v>
       </c>
       <c r="D69" s="2">
-        <v>1255046400</v>
+        <v>40095</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -14582,8 +14694,10 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="H69" s="3">
-        <v>0.5325000000011642</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.354166666666667</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -14781,7 +14895,7 @@
         <v>2010</v>
       </c>
       <c r="D70" s="2">
-        <v>1257465600</v>
+        <v>40123</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -14789,8 +14903,10 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="H70" s="3">
-        <v>0.5533333333332848</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -14988,7 +15104,7 @@
         <v>2010</v>
       </c>
       <c r="D71" s="2">
-        <v>1257724800</v>
+        <v>40126</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -14996,8 +15112,10 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="H71" s="3">
-        <v>1.095000000001164</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -15195,7 +15313,7 @@
         <v>2010</v>
       </c>
       <c r="D72" s="2">
-        <v>1258329600</v>
+        <v>40133</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -15203,8 +15321,10 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="H72" s="3">
-        <v>1.095000000001164</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -15407,7 +15527,7 @@
         <v>2010</v>
       </c>
       <c r="D73" s="2">
-        <v>1258416000</v>
+        <v>40134</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -15415,8 +15535,10 @@
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="H73" s="3">
-        <v>0.8450000000011642</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.666666666666667</t>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -15588,7 +15710,7 @@
         <v>2010</v>
       </c>
       <c r="D74" s="2">
-        <v>1263168000</v>
+        <v>40189</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -15789,7 +15911,7 @@
         <v>2013</v>
       </c>
       <c r="D75" s="2">
-        <v>1381276800</v>
+        <v>41556</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -15995,7 +16117,7 @@
         <v>2013</v>
       </c>
       <c r="D76" s="2">
-        <v>1382659200</v>
+        <v>41572</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -16003,8 +16125,10 @@
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -16214,7 +16338,7 @@
         <v>2013</v>
       </c>
       <c r="D77" s="2">
-        <v>1383004800</v>
+        <v>41576</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -16420,7 +16544,7 @@
         <v>2013</v>
       </c>
       <c r="D78" s="2">
-        <v>1386288000</v>
+        <v>41614</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -16621,7 +16745,7 @@
         <v>2013</v>
       </c>
       <c r="D79" s="2">
-        <v>1386633600</v>
+        <v>41618</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -16820,7 +16944,7 @@
         <v>2013</v>
       </c>
       <c r="D80" s="2">
-        <v>1508198400</v>
+        <v>43025</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -16973,7 +17097,7 @@
         <v>2017</v>
       </c>
       <c r="D81" s="2">
-        <v>1508284800</v>
+        <v>43026</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -17134,7 +17258,7 @@
         <v>2017</v>
       </c>
       <c r="D82" s="2">
-        <v>1506988800</v>
+        <v>43011</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -17142,8 +17266,10 @@
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="H82" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -17356,7 +17482,7 @@
         <v>2017</v>
       </c>
       <c r="D83" s="2">
-        <v>1508803200</v>
+        <v>43032</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -17364,8 +17490,10 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="H83" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -17568,7 +17696,7 @@
         <v>2017</v>
       </c>
       <c r="D84" s="2">
-        <v>1506556800</v>
+        <v>43006</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -17777,7 +17905,7 @@
         <v>2017</v>
       </c>
       <c r="D85" s="2">
-        <v>1508457600</v>
+        <v>43028</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -17785,8 +17913,10 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="H85" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -17994,7 +18124,7 @@
         <v>2017</v>
       </c>
       <c r="D86" s="2">
-        <v>1509926400</v>
+        <v>43045</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -18188,7 +18318,7 @@
         <v>2017</v>
       </c>
       <c r="D87" s="2">
-        <v>1512604800</v>
+        <v>43076</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -18196,8 +18326,10 @@
       <c r="F87">
         <v>2</v>
       </c>
-      <c r="H87" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -18397,7 +18529,7 @@
         <v>2017</v>
       </c>
       <c r="D88" s="2">
-        <v>1512950400</v>
+        <v>43080</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -18596,7 +18728,7 @@
         <v>2021</v>
       </c>
       <c r="D89" s="2">
-        <v>1632268800</v>
+        <v>44461</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -18609,8 +18741,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H89" s="3">
-        <v>1.115833333333285</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -18813,7 +18947,7 @@
         <v>2021</v>
       </c>
       <c r="D90" s="2">
-        <v>1632441600</v>
+        <v>44463</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -18940,7 +19074,7 @@
         <v>2021</v>
       </c>
       <c r="D91" s="2">
-        <v>1633910400</v>
+        <v>44480</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -18953,8 +19087,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H91" s="3">
-        <v>1.115833333333285</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -19152,7 +19288,7 @@
         <v>2021</v>
       </c>
       <c r="D92" s="2">
-        <v>1634256000</v>
+        <v>44484</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -19165,8 +19301,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H92" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -19369,7 +19507,7 @@
         <v>2021</v>
       </c>
       <c r="D93" s="2">
-        <v>1634774400</v>
+        <v>44490</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -19382,8 +19520,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H93" s="3">
-        <v>1.011666666665406</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -19591,7 +19731,7 @@
         <v>2021</v>
       </c>
       <c r="D94" s="2">
-        <v>1635724800</v>
+        <v>44501</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -19604,8 +19744,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H94" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -19808,7 +19950,7 @@
         <v>2021</v>
       </c>
       <c r="D95" s="2">
-        <v>1636070400</v>
+        <v>44505</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -19821,8 +19963,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H95" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -20030,7 +20174,7 @@
         <v>2021</v>
       </c>
       <c r="D96" s="2">
-        <v>1636588800</v>
+        <v>44511</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -20043,8 +20187,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H96" s="3">
-        <v>0.7200000000011642</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0.541666666666667</t>
+        </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -20257,7 +20403,7 @@
         <v>2021</v>
       </c>
       <c r="D97" s="2">
-        <v>1636934400</v>
+        <v>44515</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -20270,8 +20416,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H97" s="3">
-        <v>1.115833333333285</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -20459,7 +20607,7 @@
         <v>2021</v>
       </c>
       <c r="D98" s="2">
-        <v>1639094400</v>
+        <v>44540</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -20472,8 +20620,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H98" s="3">
-        <v>0.5116666666654055</v>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0.333333333333333</t>
+        </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -20661,7 +20811,7 @@
         <v>2021</v>
       </c>
       <c r="D99" s="2">
-        <v>1639353600</v>
+        <v>44543</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -20674,8 +20824,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H99" s="3">
-        <v>1.011666666665406</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -20853,7 +21005,7 @@
         <v>2015</v>
       </c>
       <c r="D100" s="2">
-        <v>1444003200</v>
+        <v>42282</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -20866,8 +21018,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H100" s="3">
-        <v>1.053333333333285</v>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -21060,7 +21214,7 @@
         <v>2015</v>
       </c>
       <c r="D101" s="2">
-        <v>1444867200</v>
+        <v>42292</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -21073,8 +21227,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H101" s="3">
-        <v>1.053333333333285</v>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -21267,7 +21423,7 @@
         <v>2019</v>
       </c>
       <c r="D102" s="2">
-        <v>1570924800</v>
+        <v>43751</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -21280,8 +21436,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H102" s="3">
-        <v>1.053333333333285</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -21474,7 +21632,7 @@
         <v>2019</v>
       </c>
       <c r="D103" s="2">
-        <v>1571529600</v>
+        <v>43758</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -21487,8 +21645,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H103" s="3">
-        <v>1.053333333333285</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -21681,7 +21841,7 @@
         <v>2023</v>
       </c>
       <c r="D104" s="2">
-        <v>1696118400</v>
+        <v>45200</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -21694,8 +21854,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H104" s="3">
-        <v>1.053333333333285</v>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -21898,7 +22060,7 @@
         <v>2023</v>
       </c>
       <c r="D105" s="2">
-        <v>1696723200</v>
+        <v>45207</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -21911,8 +22073,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H105" s="3">
-        <v>1.053333333333285</v>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -22115,7 +22279,7 @@
         <v>2023</v>
       </c>
       <c r="D106" s="2">
-        <v>1702252800</v>
+        <v>45271</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -22128,8 +22292,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H106" s="3">
-        <v>1.053333333333285</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -22332,7 +22498,7 @@
         <v>1990</v>
       </c>
       <c r="D107" s="2">
-        <v>644371200</v>
+        <v>33027</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -22345,8 +22511,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H107" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -22536,7 +22704,7 @@
         <v>2001</v>
       </c>
       <c r="D108" s="2">
-        <v>990230400</v>
+        <v>37030</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -22549,8 +22717,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H108" s="3">
-        <v>1.011666666665406</v>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -22748,7 +22918,7 @@
         <v>2006</v>
       </c>
       <c r="D109" s="2">
-        <v>1148169600</v>
+        <v>38858</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -22761,8 +22931,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H109" s="3">
-        <v>1.025555555555911</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0.847222222222222</t>
+        </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -22952,7 +23124,7 @@
         <v>2011</v>
       </c>
       <c r="D110" s="2">
-        <v>1299801600</v>
+        <v>40613</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -22965,8 +23137,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H110" s="3">
-        <v>1.011666666665406</v>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -22988,7 +23162,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Keiko Fujimori Higuchi;Óscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Noriega Salaverry;José Antonio Ñique de la Puente</t>
+          <t>Keiko Fujimori Higuchi;Óscar Oscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Noriega Salaverry;José Antonio Ñique de la Puente</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -23156,7 +23330,7 @@
         <v>2011</v>
       </c>
       <c r="D111" s="2">
-        <v>1299110400</v>
+        <v>40605</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -23169,8 +23343,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H111" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -23192,7 +23368,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Ollanta Moisés Humala Tasso;Ricardo Noriega Salaverry;Juliana Reymer Rodríguez;Manuel Rodríguez Cuadros;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;José Ñique de la Puente;Pedro Pablo Kuczynski;Humberto Pinazo Bella;Rafael Belaúnde Aubry;Luis Castañeda Lossio</t>
+          <t>Ollanta Moisés Humala Tasso;Ricardo Noriega Salaverry;Juliana Reymer Rodríguez;Manuel Rodríguez Cuadros;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;José Ñique de la Puente;Pedro Pablo Kuczynski;Humberto Pinazo Bella;Rafael Belaúnde Aubry;Oscar Luis Castañeda Lossio</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -23363,7 +23539,7 @@
         <v>2011</v>
       </c>
       <c r="D112" s="2">
-        <v>1301788800</v>
+        <v>40636</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -23376,8 +23552,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H112" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -23404,7 +23582,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Alejandro Toledo Manrique;Ollanta Moisés Humala Tasso;Keiko Fujimori Higuchi;Pedro Pablo Kuczynski;Luis Castañeda Lossio</t>
+          <t>Alejandro Toledo Manrique;Ollanta Moisés Humala Tasso;Keiko Fujimori Higuchi;Pedro Pablo Kuczynski;Oscar Luis Castañeda Lossio</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -23575,7 +23753,7 @@
         <v>2011</v>
       </c>
       <c r="D113" s="2">
-        <v>1306627200</v>
+        <v>40692</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -23588,8 +23766,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H113" s="3">
-        <v>1.011666666665406</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -23782,7 +23962,7 @@
         <v>2016</v>
       </c>
       <c r="D114" s="2">
-        <v>1455148800</v>
+        <v>42411</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -23795,8 +23975,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H114" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -24001,7 +24183,7 @@
         <v>2016</v>
       </c>
       <c r="D115" s="2">
-        <v>1459641600</v>
+        <v>42463</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -24014,8 +24196,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H115" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -24213,7 +24397,7 @@
         <v>2016</v>
       </c>
       <c r="D116" s="2">
-        <v>1463875200</v>
+        <v>42512</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -24226,8 +24410,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H116" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -24425,7 +24611,7 @@
         <v>2016</v>
       </c>
       <c r="D117" s="2">
-        <v>1464480000</v>
+        <v>42519</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -24438,8 +24624,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H117" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -24637,7 +24825,7 @@
         <v>2021</v>
       </c>
       <c r="D118" s="2">
-        <v>1615248000</v>
+        <v>44264</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -24650,8 +24838,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H118" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -24844,7 +25034,7 @@
         <v>2021</v>
       </c>
       <c r="D119" s="2">
-        <v>1616284800</v>
+        <v>44276</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -24857,8 +25047,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H119" s="3">
-        <v>1.011666666665406</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -25061,7 +25253,7 @@
         <v>2021</v>
       </c>
       <c r="D120" s="2">
-        <v>1616976000</v>
+        <v>44284</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -25074,8 +25266,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H120" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -25268,7 +25462,7 @@
         <v>2021</v>
       </c>
       <c r="D121" s="2">
-        <v>1619827200</v>
+        <v>44317</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -25281,8 +25475,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H121" s="3">
-        <v>0.7200000000011642</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0.541666666666667</t>
+        </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -25470,7 +25666,7 @@
         <v>2021</v>
       </c>
       <c r="D122" s="2">
-        <v>1622332800</v>
+        <v>44346</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -25483,8 +25679,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H122" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -25843,7 +26041,7 @@
         <v>1998</v>
       </c>
       <c r="D124" s="2">
-        <v>894585600</v>
+        <v>35923</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -26004,7 +26202,7 @@
         <v>2003</v>
       </c>
       <c r="D125" s="2">
-        <v>1046131200</v>
+        <v>37677</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -26012,8 +26210,10 @@
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="H125" s="3">
-        <v>1.032500000001164</v>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>0.854166666666667</t>
+        </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -26203,7 +26403,7 @@
         <v>2008</v>
       </c>
       <c r="D126" s="2">
-        <v>1208390400</v>
+        <v>39555</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -26399,7 +26599,7 @@
         <v>2008</v>
       </c>
       <c r="D127" s="2">
-        <v>1207180800</v>
+        <v>39541</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -26598,7 +26798,7 @@
         <v>2013</v>
       </c>
       <c r="D128" s="2">
-        <v>1361750400</v>
+        <v>41330</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -26606,8 +26806,10 @@
       <c r="F128">
         <v>1</v>
       </c>
-      <c r="H128" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -26802,7 +27004,7 @@
         <v>2013</v>
       </c>
       <c r="D129" s="2">
-        <v>1364083200</v>
+        <v>41357</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -26810,8 +27012,10 @@
       <c r="F129">
         <v>1</v>
       </c>
-      <c r="H129" s="3">
-        <v>1.053333333333285</v>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -27006,7 +27210,7 @@
         <v>2013</v>
       </c>
       <c r="D130" s="2">
-        <v>1363478400</v>
+        <v>41350</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -27014,8 +27218,10 @@
       <c r="F130">
         <v>1</v>
       </c>
-      <c r="H130" s="3">
-        <v>1.053333333333285</v>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -27215,7 +27421,7 @@
         <v>2013</v>
       </c>
       <c r="D131" s="2">
-        <v>1358985600</v>
+        <v>41298</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -27223,8 +27429,10 @@
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="H131" s="3">
-        <v>1.053333333333285</v>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -27414,7 +27622,7 @@
         <v>2018</v>
       </c>
       <c r="D132" s="2">
-        <v>1523836800</v>
+        <v>43206</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -27422,8 +27630,10 @@
       <c r="F132">
         <v>1</v>
       </c>
-      <c r="H132" s="3">
-        <v>1.011666666665406</v>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -27621,7 +27831,7 @@
         <v>2023</v>
       </c>
       <c r="D133" s="2">
-        <v>1648252800</v>
+        <v>44646</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -27634,8 +27844,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H133" s="3">
-        <v>1.011666666665406</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0.8333333333333334</t>
+        </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -27828,7 +28040,7 @@
         <v>1979</v>
       </c>
       <c r="D134" s="2">
-        <v>265075200</v>
+        <v>28637</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -27984,7 +28196,7 @@
         <v>1979</v>
       </c>
       <c r="D135" s="2">
-        <v>287020800</v>
+        <v>28891</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -28170,7 +28382,7 @@
         <v>1984</v>
       </c>
       <c r="D136" s="2">
-        <v>452044800</v>
+        <v>30801</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -28178,8 +28390,10 @@
       <c r="F136">
         <v>2</v>
       </c>
-      <c r="H136" s="3">
-        <v>1.011666666665406</v>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -28367,7 +28581,7 @@
         <v>1992</v>
       </c>
       <c r="D137" s="2">
-        <v>699235200</v>
+        <v>33662</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -28531,7 +28745,7 @@
         <v>1992</v>
       </c>
       <c r="D138" s="2">
-        <v>703468800</v>
+        <v>33711</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -28695,7 +28909,7 @@
         <v>2006</v>
       </c>
       <c r="D139" s="2">
-        <v>1156204800</v>
+        <v>38951</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -28891,7 +29105,7 @@
         <v>2006</v>
       </c>
       <c r="D140" s="2">
-        <v>1159228800</v>
+        <v>38986</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -29061,7 +29275,7 @@
         <v>2006</v>
       </c>
       <c r="D141" s="2">
-        <v>1160006400</v>
+        <v>38995</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -29069,8 +29283,10 @@
       <c r="F141">
         <v>1</v>
       </c>
-      <c r="H141" s="3">
-        <v>1.011666666665406</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -29255,7 +29471,7 @@
         <v>2013</v>
       </c>
       <c r="D142" s="2">
-        <v>1355270400</v>
+        <v>41255</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -29263,8 +29479,10 @@
       <c r="F142">
         <v>1</v>
       </c>
-      <c r="H142" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -29457,7 +29675,7 @@
         <v>2017</v>
       </c>
       <c r="D143" s="2">
-        <v>1485302400</v>
+        <v>42760</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -29465,8 +29683,10 @@
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="H143" s="3">
-        <v>1.053333333333285</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -29653,7 +29873,7 @@
         <v>2021</v>
       </c>
       <c r="D144" s="2">
-        <v>1486252800</v>
+        <v>42771</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -29661,8 +29881,10 @@
       <c r="F144">
         <v>1</v>
       </c>
-      <c r="H144" s="3">
-        <v>1.011666666665406</v>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -29860,7 +30082,7 @@
         <v>2021</v>
       </c>
       <c r="D145" s="2">
-        <v>1610755200</v>
+        <v>44212</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -29868,8 +30090,10 @@
       <c r="F145">
         <v>1</v>
       </c>
-      <c r="H145" s="3">
-        <v>1.011666666665406</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -30072,7 +30296,7 @@
         <v>2021</v>
       </c>
       <c r="D146" s="2">
-        <v>1610150400</v>
+        <v>44205</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -30080,8 +30304,10 @@
       <c r="F146">
         <v>1</v>
       </c>
-      <c r="H146" s="3">
-        <v>1.011666666665406</v>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -30281,7 +30507,7 @@
         <v>2021</v>
       </c>
       <c r="D147" s="2">
-        <v>1610582400</v>
+        <v>44210</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -30289,8 +30515,10 @@
       <c r="F147">
         <v>1</v>
       </c>
-      <c r="H147" s="3">
-        <v>1.011666666665406</v>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -30490,7 +30718,7 @@
         <v>2021</v>
       </c>
       <c r="D148" s="2">
-        <v>1616284800</v>
+        <v>44276</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -30498,8 +30726,10 @@
       <c r="F148">
         <v>2</v>
       </c>
-      <c r="H148" s="3">
-        <v>1.011666666665406</v>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -30694,7 +30924,7 @@
         <v>2023</v>
       </c>
       <c r="D149" s="2">
-        <v>1691884800</v>
+        <v>45151</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -30707,8 +30937,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H149" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>0.7916666666666666</t>
+        </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -30906,7 +31138,7 @@
         <v>2023</v>
       </c>
       <c r="D150" s="2">
-        <v>1696118400</v>
+        <v>45200</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -30919,8 +31151,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H150" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>0.7916666666666666</t>
+        </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -31253,7 +31487,7 @@
         <v>1989</v>
       </c>
       <c r="D152" s="2">
-        <v>617932800</v>
+        <v>32721</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -32171,7 +32405,7 @@
         <v>1994</v>
       </c>
       <c r="D157" s="2">
-        <v>784252800</v>
+        <v>34646</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -32179,8 +32413,10 @@
       <c r="F157">
         <v>1</v>
       </c>
-      <c r="H157" s="3">
-        <v>1.074166666665406</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>0.895833333333333</t>
+        </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -32360,7 +32596,7 @@
         <v>1994</v>
       </c>
       <c r="D158" s="2">
-        <v>785462400</v>
+        <v>34660</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -32416,7 +32652,7 @@
         <v>2009</v>
       </c>
       <c r="D159" s="2">
-        <v>1252195200</v>
+        <v>40062</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -32424,8 +32660,10 @@
       <c r="F159">
         <v>1</v>
       </c>
-      <c r="H159" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -32615,7 +32853,7 @@
         <v>2014</v>
       </c>
       <c r="D160" s="2">
-        <v>1412812800</v>
+        <v>41921</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -32811,7 +33049,7 @@
         <v>2019</v>
       </c>
       <c r="D161" s="2">
-        <v>1569888000</v>
+        <v>43739</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -33002,7 +33240,7 @@
         <v>2019</v>
       </c>
       <c r="D162" s="2">
-        <v>1573689600</v>
+        <v>43783</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -33198,7 +33436,7 @@
         <v>1990</v>
       </c>
       <c r="D163" s="2">
-        <v>657417600</v>
+        <v>33178</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -33349,7 +33587,7 @@
         <v>2006</v>
       </c>
       <c r="D164" s="2">
-        <v>1158105600</v>
+        <v>38973</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -33535,7 +33773,7 @@
         <v>1994</v>
       </c>
       <c r="D165" s="2">
-        <v>764812800</v>
+        <v>34421</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -33696,7 +33934,7 @@
         <v>1994</v>
       </c>
       <c r="D166" s="2">
-        <v>766022400</v>
+        <v>34435</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -33857,7 +34095,7 @@
         <v>1994</v>
       </c>
       <c r="D167" s="2">
-        <v>767232000</v>
+        <v>34449</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -34018,7 +34256,7 @@
         <v>2004</v>
       </c>
       <c r="D168" s="2">
-        <v>1069027200</v>
+        <v>37942</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -34081,7 +34319,7 @@
         <v>2004</v>
       </c>
       <c r="D169" s="2">
-        <v>1075680000</v>
+        <v>38019</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -34089,8 +34327,10 @@
       <c r="F169">
         <v>1</v>
       </c>
-      <c r="H169" s="3">
-        <v>0.9491666666654055</v>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>0.770833333333333</t>
+        </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -34265,7 +34505,7 @@
         <v>2004</v>
       </c>
       <c r="D170" s="2">
-        <v>1079395200</v>
+        <v>38062</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -34438,7 +34678,7 @@
         <v>2004</v>
       </c>
       <c r="D171" s="2">
-        <v>1082332800</v>
+        <v>38096</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -34621,7 +34861,7 @@
         <v>2009</v>
       </c>
       <c r="D172" s="2">
-        <v>1237248000</v>
+        <v>39889</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -34629,8 +34869,10 @@
       <c r="F172">
         <v>1</v>
       </c>
-      <c r="H172" s="3">
-        <v>1.053333333333285</v>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -34815,7 +35057,7 @@
         <v>2014</v>
       </c>
       <c r="D173" s="2">
-        <v>1390176000</v>
+        <v>41659</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -34993,7 +35235,7 @@
         <v>2014</v>
       </c>
       <c r="D174" s="2">
-        <v>1396828800</v>
+        <v>41736</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -35001,8 +35243,10 @@
       <c r="F174">
         <v>1</v>
       </c>
-      <c r="H174" s="3">
-        <v>1.011666666665406</v>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -35180,7 +35424,7 @@
         <v>2014</v>
       </c>
       <c r="D175" s="2">
-        <v>1397606400</v>
+        <v>41745</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -35188,8 +35432,10 @@
       <c r="F175">
         <v>1</v>
       </c>
-      <c r="H175" s="3">
-        <v>1.011666666665406</v>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -35389,7 +35635,7 @@
         <v>2019</v>
       </c>
       <c r="D176" s="2">
-        <v>1553040000</v>
+        <v>43544</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -35580,7 +35826,7 @@
         <v>2019</v>
       </c>
       <c r="D177" s="2">
-        <v>1553558400</v>
+        <v>43550</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -35778,7 +36024,7 @@
         <v>2019</v>
       </c>
       <c r="D178" s="2">
-        <v>1553644800</v>
+        <v>43551</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -35786,8 +36032,10 @@
       <c r="F178">
         <v>1</v>
       </c>
-      <c r="H178" s="3">
-        <v>1.011666666665406</v>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -35980,7 +36228,7 @@
         <v>2019</v>
       </c>
       <c r="D179" s="2">
-        <v>4390761600</v>
+        <v>76388</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -36179,7 +36427,7 @@
         <v>2019</v>
       </c>
       <c r="D180" s="2">
-        <v>1552435200</v>
+        <v>43537</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -36187,8 +36435,10 @@
       <c r="F180">
         <v>1</v>
       </c>
-      <c r="H180" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -36383,7 +36633,7 @@
         <v>2019</v>
       </c>
       <c r="D181" s="2">
-        <v>1554854400</v>
+        <v>43565</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -36574,7 +36824,7 @@
         <v>1963</v>
       </c>
       <c r="D182" s="2">
-        <v>-195523199</v>
+        <v>23306</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -36930,7 +37180,7 @@
         <v>1983</v>
       </c>
       <c r="D184" s="2">
-        <v>421372800</v>
+        <v>30446</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -37124,7 +37374,7 @@
         <v>1998</v>
       </c>
       <c r="D185" s="2">
-        <v>888710400</v>
+        <v>35855</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -37325,7 +37575,7 @@
         <v>1989</v>
       </c>
       <c r="D186" s="2">
-        <v>609724800</v>
+        <v>32626</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -37536,7 +37786,7 @@
         <v>1993</v>
       </c>
       <c r="D187" s="2">
-        <v>737856000</v>
+        <v>34109</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -38351,7 +38601,7 @@
         <v>1997</v>
       </c>
       <c r="D192" s="2">
-        <v>862272000</v>
+        <v>35549</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -38529,7 +38779,7 @@
         <v>2002</v>
       </c>
       <c r="D193" s="2">
-        <v>1024185600</v>
+        <v>37423</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -38723,7 +38973,7 @@
         <v>2002</v>
       </c>
       <c r="D194" s="2">
-        <v>1024790400</v>
+        <v>37430</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -38906,7 +39156,7 @@
         <v>2005</v>
       </c>
       <c r="D195" s="2">
-        <v>1134259200</v>
+        <v>38697</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -38914,8 +39164,10 @@
       <c r="F195">
         <v>1</v>
       </c>
-      <c r="H195" s="3">
-        <v>0.9540277777778101</v>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>0.775694444444444</t>
+        </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -39095,7 +39347,7 @@
         <v>2014</v>
       </c>
       <c r="D196" s="2">
-        <v>1411862400</v>
+        <v>41910</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -39306,7 +39558,7 @@
         <v>2020</v>
       </c>
       <c r="D197" s="2">
-        <v>1601683200</v>
+        <v>44107</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -39507,7 +39759,7 @@
         <v>2020</v>
       </c>
       <c r="D198" s="2">
-        <v>1601769600</v>
+        <v>44108</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -39515,8 +39767,10 @@
       <c r="F198">
         <v>1</v>
       </c>
-      <c r="H198" s="3">
-        <v>1.011666666665406</v>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -39709,7 +39963,7 @@
         <v>1994</v>
       </c>
       <c r="D199" s="2">
-        <v>768700800</v>
+        <v>34466</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -39908,7 +40162,7 @@
         <v>2000</v>
       </c>
       <c r="D200" s="2">
-        <v>956620800</v>
+        <v>36641</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -40104,7 +40358,7 @@
         <v>2000</v>
       </c>
       <c r="D201" s="2">
-        <v>959299200</v>
+        <v>36672</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -40303,7 +40557,7 @@
         <v>2006</v>
       </c>
       <c r="D202" s="2">
-        <v>1145923200</v>
+        <v>38832</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -40502,7 +40756,7 @@
         <v>2006</v>
       </c>
       <c r="D203" s="2">
-        <v>1149552000</v>
+        <v>38874</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -40696,7 +40950,7 @@
         <v>2012</v>
       </c>
       <c r="D204" s="2">
-        <v>1336262400</v>
+        <v>41035</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -40890,7 +41144,7 @@
         <v>2012</v>
       </c>
       <c r="D205" s="2">
-        <v>1339286400</v>
+        <v>41070</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -41086,7 +41340,7 @@
         <v>2012</v>
       </c>
       <c r="D206" s="2">
-        <v>1340064000</v>
+        <v>41079</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -41290,13 +41544,18 @@
         <v>2018</v>
       </c>
       <c r="D207" s="2">
-        <v>1524355200</v>
+        <v>43212</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207">
         <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>19:00 (centro)</t>
+        </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -41486,7 +41745,7 @@
         <v>2018</v>
       </c>
       <c r="D208" s="2">
-        <v>1526774400</v>
+        <v>43240</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -41682,7 +41941,7 @@
         <v>2018</v>
       </c>
       <c r="D209" s="2">
-        <v>1528761600</v>
+        <v>43263</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -42326,7 +42585,7 @@
         <v>2003</v>
       </c>
       <c r="D215" s="2">
-        <v>1064534400</v>
+        <v>37890</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -42527,7 +42786,7 @@
         <v>2003</v>
       </c>
       <c r="D216" s="2">
-        <v>1071446400</v>
+        <v>37970</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -42710,7 +42969,7 @@
         <v>2007</v>
       </c>
       <c r="D217" s="2">
-        <v>1188432000</v>
+        <v>39324</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -42718,8 +42977,10 @@
       <c r="F217">
         <v>1</v>
       </c>
-      <c r="H217" s="3">
-        <v>1.053333333333285</v>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -42894,7 +43155,7 @@
         <v>2011</v>
       </c>
       <c r="D218" s="2">
-        <v>1306972800</v>
+        <v>40696</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -43080,7 +43341,7 @@
         <v>2011</v>
       </c>
       <c r="D219" s="2">
-        <v>1308787200</v>
+        <v>40717</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -43276,7 +43537,7 @@
         <v>2011</v>
       </c>
       <c r="D220" s="2">
-        <v>1310515200</v>
+        <v>40737</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -43284,8 +43545,10 @@
       <c r="F220">
         <v>1</v>
       </c>
-      <c r="H220" s="3">
-        <v>0.5741666666654055</v>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>0.395833333333333</t>
+        </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -43460,7 +43723,7 @@
         <v>2011</v>
       </c>
       <c r="D221" s="2">
-        <v>1313020800</v>
+        <v>40766</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -43636,7 +43899,7 @@
         <v>2011</v>
       </c>
       <c r="D222" s="2">
-        <v>1313971200</v>
+        <v>40777</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -43822,7 +44085,7 @@
         <v>2011</v>
       </c>
       <c r="D223" s="2">
-        <v>1314230400</v>
+        <v>40780</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -43830,8 +44093,10 @@
       <c r="F223">
         <v>1</v>
       </c>
-      <c r="H223" s="3">
-        <v>0.9804166666654055</v>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>0.802083333333333</t>
+        </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -44006,7 +44271,7 @@
         <v>2011</v>
       </c>
       <c r="D224" s="2">
-        <v>1318809600</v>
+        <v>40833</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -44197,7 +44462,7 @@
         <v>2015</v>
       </c>
       <c r="D225" s="2">
-        <v>1439164800</v>
+        <v>42226</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -44398,7 +44663,7 @@
         <v>2015</v>
       </c>
       <c r="D226" s="2">
-        <v>1440460800</v>
+        <v>42241</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -44589,7 +44854,7 @@
         <v>2015</v>
       </c>
       <c r="D227" s="2">
-        <v>1439683200</v>
+        <v>42232</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -44597,8 +44862,10 @@
       <c r="F227">
         <v>1</v>
       </c>
-      <c r="H227" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -44806,7 +45073,7 @@
         <v>2015</v>
       </c>
       <c r="D228" s="2">
-        <v>1440028800</v>
+        <v>42236</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -44992,7 +45259,7 @@
         <v>2015</v>
       </c>
       <c r="D229" s="2">
-        <v>1444780800</v>
+        <v>42291</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -45000,8 +45267,10 @@
       <c r="F229">
         <v>2</v>
       </c>
-      <c r="H229" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -45179,7 +45448,7 @@
         <v>2015</v>
       </c>
       <c r="D230" s="2">
-        <v>1445212800</v>
+        <v>42296</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -45187,8 +45456,10 @@
       <c r="F230">
         <v>2</v>
       </c>
-      <c r="H230" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -45376,7 +45647,7 @@
         <v>2015</v>
       </c>
       <c r="D231" s="2">
-        <v>1445558400</v>
+        <v>42300</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -45384,8 +45655,10 @@
       <c r="F231">
         <v>2</v>
       </c>
-      <c r="H231" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -45593,7 +45866,7 @@
         <v>2019</v>
       </c>
       <c r="D232" s="2">
-        <v>1559433600</v>
+        <v>43618</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -45601,8 +45874,10 @@
       <c r="F232">
         <v>1</v>
       </c>
-      <c r="H232" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -45787,7 +46062,7 @@
         <v>2019</v>
       </c>
       <c r="D233" s="2">
-        <v>1560124800</v>
+        <v>43626</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -45978,7 +46253,7 @@
         <v>2019</v>
       </c>
       <c r="D234" s="2">
-        <v>1557532800</v>
+        <v>43596</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -45986,8 +46261,10 @@
       <c r="F234">
         <v>1</v>
       </c>
-      <c r="H234" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -46195,7 +46472,7 @@
         <v>2023</v>
       </c>
       <c r="D235" s="2">
-        <v>1682467200</v>
+        <v>45042</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -46419,7 +46696,7 @@
         <v>2023</v>
       </c>
       <c r="D236" s="2">
-        <v>1683158400</v>
+        <v>45050</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -46430,6 +46707,11 @@
       <c r="G236" t="inlineStr">
         <is>
           <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>07:00:00 PM</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -46633,7 +46915,7 @@
         <v>2023</v>
       </c>
       <c r="D237" s="2">
-        <v>1684886400</v>
+        <v>45070</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -46644,6 +46926,11 @@
       <c r="G237" t="inlineStr">
         <is>
           <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>06:00:00 PM</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -46833,7 +47120,7 @@
         <v>2023</v>
       </c>
       <c r="D238" s="2">
-        <v>1687132800</v>
+        <v>45096</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -47047,7 +47334,7 @@
         <v>2023</v>
       </c>
       <c r="D239" s="2">
-        <v>1691971200</v>
+        <v>45152</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -47201,7 +47488,7 @@
         <v>2023</v>
       </c>
       <c r="D240" s="2">
-        <v>1685404800</v>
+        <v>45076</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -47212,6 +47499,11 @@
       <c r="G240" t="inlineStr">
         <is>
           <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>07:00:00 PM</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -47415,7 +47707,7 @@
         <v>2023</v>
       </c>
       <c r="D241" s="2">
-        <v>1685491200</v>
+        <v>45077</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -47426,6 +47718,11 @@
       <c r="G241" t="inlineStr">
         <is>
           <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>04:00:00 PM</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -47629,7 +47926,7 @@
         <v>2023</v>
       </c>
       <c r="D242" s="2">
-        <v>1680048000</v>
+        <v>45014</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -47833,7 +48130,7 @@
         <v>2023</v>
       </c>
       <c r="D243" s="2">
-        <v>1685318400</v>
+        <v>45075</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -48043,7 +48340,7 @@
         <v>1993</v>
       </c>
       <c r="D244" s="2">
-        <v>749174400</v>
+        <v>34240</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -48672,7 +48969,7 @@
         <v>2013</v>
       </c>
       <c r="D248" s="2">
-        <v>1381276800</v>
+        <v>41556</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -48680,8 +48977,10 @@
       <c r="F248">
         <v>1</v>
       </c>
-      <c r="H248" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -48886,7 +49185,7 @@
         <v>2017</v>
       </c>
       <c r="D249" s="2">
-        <v>1507766400</v>
+        <v>43020</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -49097,7 +49396,7 @@
         <v>1986</v>
       </c>
       <c r="D250" s="2">
-        <v>508464000</v>
+        <v>31454</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -49301,7 +49600,7 @@
         <v>1986</v>
       </c>
       <c r="D251" s="2">
-        <v>509673600</v>
+        <v>31468</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -49510,7 +49809,7 @@
         <v>1994</v>
       </c>
       <c r="D252" s="2">
-        <v>768700800</v>
+        <v>34466</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -49518,8 +49817,10 @@
       <c r="F252">
         <v>1</v>
       </c>
-      <c r="H252" s="3">
-        <v>1.095000000001164</v>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -49722,7 +50023,7 @@
         <v>1994</v>
       </c>
       <c r="D253" s="2">
-        <v>769132800</v>
+        <v>34471</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -49730,8 +50031,10 @@
       <c r="F253">
         <v>1</v>
       </c>
-      <c r="H253" s="3">
-        <v>0.6158333333332848</v>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -49911,7 +50214,7 @@
         <v>1998</v>
       </c>
       <c r="D254" s="2">
-        <v>897177600</v>
+        <v>35953</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -50115,7 +50418,7 @@
         <v>1998</v>
       </c>
       <c r="D255" s="2">
-        <v>897436800</v>
+        <v>35956</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -50123,8 +50426,10 @@
       <c r="F255">
         <v>2</v>
       </c>
-      <c r="H255" s="3">
-        <v>1.011666666665406</v>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -50312,7 +50617,7 @@
         <v>2002</v>
       </c>
       <c r="D256" s="2">
-        <v>1018483200</v>
+        <v>37357</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -50495,7 +50800,7 @@
         <v>2002</v>
       </c>
       <c r="D257" s="2">
-        <v>1016496000</v>
+        <v>37334</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -50503,8 +50808,10 @@
       <c r="F257">
         <v>1</v>
       </c>
-      <c r="H257" s="3">
-        <v>1.053333333333285</v>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
@@ -50697,7 +51004,7 @@
         <v>2006</v>
       </c>
       <c r="D258" s="2">
-        <v>1147651200</v>
+        <v>38852</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -50705,8 +51012,10 @@
       <c r="F258">
         <v>1</v>
       </c>
-      <c r="H258" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
@@ -50866,7 +51175,7 @@
         <v>2006</v>
       </c>
       <c r="D259" s="2">
-        <v>1147824000</v>
+        <v>38854</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -50979,7 +51288,7 @@
         <v>2006</v>
       </c>
       <c r="D260" s="2">
-        <v>1144281600</v>
+        <v>38813</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -50987,8 +51296,10 @@
       <c r="F260">
         <v>1</v>
       </c>
-      <c r="H260" s="3">
-        <v>1.011666666665406</v>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
@@ -51178,7 +51489,7 @@
         <v>2006</v>
       </c>
       <c r="D261" s="2">
-        <v>1145750400</v>
+        <v>38830</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -51186,8 +51497,10 @@
       <c r="F261">
         <v>1</v>
       </c>
-      <c r="H261" s="3">
-        <v>1.053333333333285</v>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
@@ -51362,7 +51675,7 @@
         <v>2010</v>
       </c>
       <c r="D262" s="2">
-        <v>1269302400</v>
+        <v>40260</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -51370,8 +51683,10 @@
       <c r="F262">
         <v>1</v>
       </c>
-      <c r="H262" s="3">
-        <v>1.095000000001164</v>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -51574,7 +51889,7 @@
         <v>2010</v>
       </c>
       <c r="D263" s="2">
-        <v>1271548800</v>
+        <v>40286</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -51768,7 +52083,7 @@
         <v>2010</v>
       </c>
       <c r="D264" s="2">
-        <v>1272326400</v>
+        <v>40295</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -51949,7 +52264,7 @@
         <v>2010</v>
       </c>
       <c r="D265" s="2">
-        <v>1274140800</v>
+        <v>40316</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -51957,8 +52272,10 @@
       <c r="F265">
         <v>1</v>
       </c>
-      <c r="H265" s="3">
-        <v>1.095000000001164</v>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -52151,7 +52468,7 @@
         <v>2010</v>
       </c>
       <c r="D266" s="2">
-        <v>1274745600</v>
+        <v>40323</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -52332,7 +52649,7 @@
         <v>2010</v>
       </c>
       <c r="D267" s="2">
-        <v>1276041600</v>
+        <v>40338</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -52340,8 +52657,10 @@
       <c r="F267">
         <v>2</v>
       </c>
-      <c r="H267" s="3">
-        <v>1.053333333333285</v>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -52516,7 +52835,7 @@
         <v>2010</v>
       </c>
       <c r="D268" s="2">
-        <v>1276732800</v>
+        <v>40346</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -52702,7 +53021,7 @@
         <v>2014</v>
       </c>
       <c r="D269" s="2">
-        <v>1396396800</v>
+        <v>41731</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -52888,7 +53207,7 @@
         <v>2014</v>
       </c>
       <c r="D270" s="2">
-        <v>1400630400</v>
+        <v>41780</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -52896,8 +53215,10 @@
       <c r="F270">
         <v>1</v>
       </c>
-      <c r="H270" s="3">
-        <v>0.5950000000011642</v>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>0.416666666666667</t>
+        </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
@@ -53095,7 +53416,7 @@
         <v>2014</v>
       </c>
       <c r="D271" s="2">
-        <v>1400630400</v>
+        <v>41780</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -53103,8 +53424,10 @@
       <c r="F271">
         <v>1</v>
       </c>
-      <c r="H271" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
@@ -53169,7 +53492,7 @@
         <v>2014</v>
       </c>
       <c r="D272" s="2">
-        <v>1397001600</v>
+        <v>41738</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -53362,7 +53685,7 @@
         <v>2014</v>
       </c>
       <c r="D273" s="2">
-        <v>1400544000</v>
+        <v>41779</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -53566,7 +53889,7 @@
         <v>2014</v>
       </c>
       <c r="D274" s="2">
-        <v>1400716800</v>
+        <v>41781</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -53574,8 +53897,10 @@
       <c r="F274">
         <v>1</v>
       </c>
-      <c r="H274" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -53768,7 +54093,7 @@
         <v>2014</v>
       </c>
       <c r="D275" s="2">
-        <v>1400803200</v>
+        <v>41782</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -53776,8 +54101,10 @@
       <c r="F275">
         <v>1</v>
       </c>
-      <c r="H275" s="3">
-        <v>1.053333333333285</v>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -53980,7 +54307,7 @@
         <v>2014</v>
       </c>
       <c r="D276" s="2">
-        <v>1401926400</v>
+        <v>41795</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -53988,8 +54315,10 @@
       <c r="F276">
         <v>2</v>
       </c>
-      <c r="H276" s="3">
-        <v>1.053333333333285</v>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
@@ -54187,7 +54516,7 @@
         <v>2014</v>
       </c>
       <c r="D277" s="2">
-        <v>1402272000</v>
+        <v>41799</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -54381,7 +54710,7 @@
         <v>2014</v>
       </c>
       <c r="D278" s="2">
-        <v>1402358400</v>
+        <v>41800</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -54389,8 +54718,10 @@
       <c r="F278">
         <v>2</v>
       </c>
-      <c r="H278" s="3">
-        <v>0.7616666666654055</v>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>0.583333333333333</t>
+        </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -54575,7 +54906,7 @@
         <v>2018</v>
       </c>
       <c r="D279" s="2">
-        <v>1516665600</v>
+        <v>43123</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -54779,7 +55110,7 @@
         <v>2018</v>
       </c>
       <c r="D280" s="2">
-        <v>1521763200</v>
+        <v>43182</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -54787,8 +55118,10 @@
       <c r="F280">
         <v>1</v>
       </c>
-      <c r="H280" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
@@ -54985,7 +55318,7 @@
         <v>2018</v>
       </c>
       <c r="D281" s="2">
-        <v>1520467200</v>
+        <v>43167</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -54998,8 +55331,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H281" s="3">
-        <v>0.8450000000011642</v>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>0.666666666666667</t>
+        </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
@@ -55194,7 +55529,7 @@
         <v>2018</v>
       </c>
       <c r="D282" s="2">
-        <v>1524528000</v>
+        <v>43214</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -55207,8 +55542,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H282" s="3">
-        <v>0.4700000000011642</v>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>0.291666666666667</t>
+        </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
@@ -55401,7 +55738,7 @@
         <v>2018</v>
       </c>
       <c r="D283" s="2">
-        <v>1527033600</v>
+        <v>43243</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -55414,8 +55751,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H283" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
@@ -55623,7 +55962,7 @@
         <v>2018</v>
       </c>
       <c r="D284" s="2">
-        <v>1524614400</v>
+        <v>43215</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -55636,8 +55975,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H284" s="3">
-        <v>0.8866666666654055</v>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>0.708333333333333</t>
+        </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
@@ -55842,7 +56183,7 @@
         <v>2018</v>
       </c>
       <c r="D285" s="2">
-        <v>1522886400</v>
+        <v>43195</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -55855,8 +56196,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H285" s="3">
-        <v>0.5533333333332848</v>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
@@ -56049,7 +56392,7 @@
         <v>2018</v>
       </c>
       <c r="D286" s="2">
-        <v>1522713600</v>
+        <v>43193</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -56062,8 +56405,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H286" s="3">
-        <v>1.032500000001164</v>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>0.854166666666667</t>
+        </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
@@ -56256,7 +56601,7 @@
         <v>2018</v>
       </c>
       <c r="D287" s="2">
-        <v>1523404800</v>
+        <v>43201</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -56269,8 +56614,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H287" s="3">
-        <v>0.6158333333332848</v>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
@@ -56463,7 +56810,7 @@
         <v>2018</v>
       </c>
       <c r="D288" s="2">
-        <v>1524009600</v>
+        <v>43208</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -56476,8 +56823,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H288" s="3">
-        <v>0.7616666666654055</v>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>0.583333333333333</t>
+        </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -56675,7 +57024,7 @@
         <v>2018</v>
       </c>
       <c r="D289" s="2">
-        <v>1525737600</v>
+        <v>43228</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -56688,8 +57037,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H289" s="3">
-        <v>1.011666666665406</v>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -56882,7 +57233,7 @@
         <v>2018</v>
       </c>
       <c r="D290" s="2">
-        <v>1524096000</v>
+        <v>43209</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -56895,8 +57246,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H290" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
@@ -57094,7 +57447,7 @@
         <v>2018</v>
       </c>
       <c r="D291" s="2">
-        <v>1525996800</v>
+        <v>43231</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -57310,7 +57663,7 @@
         <v>2018</v>
       </c>
       <c r="D292" s="2">
-        <v>1527120000</v>
+        <v>43244</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -57323,8 +57676,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H292" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -57517,7 +57872,7 @@
         <v>2018</v>
       </c>
       <c r="D293" s="2">
-        <v>1527206400</v>
+        <v>43245</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -57530,8 +57885,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H293" s="3">
-        <v>1.053333333333285</v>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
@@ -57734,7 +58091,7 @@
         <v>2018</v>
       </c>
       <c r="D294" s="2">
-        <v>1517788800</v>
+        <v>43136</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -57747,8 +58104,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H294" s="3">
-        <v>0.5533333333332848</v>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
@@ -57952,7 +58311,7 @@
         <v>2022</v>
       </c>
       <c r="D295" s="2">
-        <v>1647216000</v>
+        <v>44634</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -57965,8 +58324,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H295" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
@@ -58169,7 +58530,7 @@
         <v>2022</v>
       </c>
       <c r="D296" s="2">
-        <v>1647475200</v>
+        <v>44637</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -58182,8 +58543,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H296" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -58401,7 +58764,7 @@
         <v>2022</v>
       </c>
       <c r="D297" s="2">
-        <v>1647820800</v>
+        <v>44641</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -58414,8 +58777,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H297" s="3">
-        <v>0.9804166666654055</v>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>0.802083333333333</t>
+        </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
@@ -58618,7 +58983,7 @@
         <v>2022</v>
       </c>
       <c r="D298" s="2">
-        <v>1648166400</v>
+        <v>44645</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -58837,7 +59202,7 @@
         <v>2022</v>
       </c>
       <c r="D299" s="2">
-        <v>1648512000</v>
+        <v>44649</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -58850,8 +59215,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H299" s="3">
-        <v>0.5741666666654055</v>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>0.395833333333333</t>
+        </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
@@ -59059,7 +59426,7 @@
         <v>2022</v>
       </c>
       <c r="D300" s="2">
-        <v>1648684800</v>
+        <v>44651</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -59288,7 +59655,7 @@
         <v>2022</v>
       </c>
       <c r="D301" s="2">
-        <v>1649289600</v>
+        <v>44658</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -59301,8 +59668,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H301" s="3">
-        <v>0.8866666666654055</v>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>0.708333333333333</t>
+        </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
@@ -59495,7 +59864,7 @@
         <v>2022</v>
       </c>
       <c r="D302" s="2">
-        <v>1650412800</v>
+        <v>44671</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -59508,8 +59877,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H302" s="3">
-        <v>0.7200000000011642</v>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>0.541666666666667</t>
+        </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
@@ -59727,7 +60098,7 @@
         <v>2022</v>
       </c>
       <c r="D303" s="2">
-        <v>1650758400</v>
+        <v>44675</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -59740,8 +60111,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H303" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -59959,7 +60332,7 @@
         <v>2022</v>
       </c>
       <c r="D304" s="2">
-        <v>1650844800</v>
+        <v>44676</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -59972,8 +60345,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H304" s="3">
-        <v>0.8450000000011642</v>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>0.666666666666667</t>
+        </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
@@ -60186,7 +60561,7 @@
         <v>2022</v>
       </c>
       <c r="D305" s="2">
-        <v>1650931200</v>
+        <v>44677</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -60199,8 +60574,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H305" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
@@ -60408,7 +60785,7 @@
         <v>2022</v>
       </c>
       <c r="D306" s="2">
-        <v>1651276800</v>
+        <v>44681</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -60421,8 +60798,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H306" s="3">
-        <v>0.5533333333332848</v>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
@@ -60630,7 +61009,7 @@
         <v>2022</v>
       </c>
       <c r="D307" s="2">
-        <v>1651190400</v>
+        <v>44680</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -60643,8 +61022,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H307" s="3">
-        <v>0.5533333333332848</v>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
@@ -60862,7 +61243,7 @@
         <v>2022</v>
       </c>
       <c r="D308" s="2">
-        <v>1651536000</v>
+        <v>44684</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -60875,8 +61256,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H308" s="3">
-        <v>0.5950000000011642</v>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>0.416666666666667</t>
+        </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
@@ -61094,7 +61477,7 @@
         <v>2022</v>
       </c>
       <c r="D309" s="2">
-        <v>1651708800</v>
+        <v>44686</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -61107,8 +61490,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H309" s="3">
-        <v>0.8450000000011642</v>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>0.666666666666667</t>
+        </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
@@ -61321,7 +61706,7 @@
         <v>2022</v>
       </c>
       <c r="D310" s="2">
-        <v>1651968000</v>
+        <v>44689</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -61334,8 +61719,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H310" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
@@ -61543,7 +61930,7 @@
         <v>2022</v>
       </c>
       <c r="D311" s="2">
-        <v>1652054400</v>
+        <v>44690</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -61556,8 +61943,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H311" s="3">
-        <v>1.032500000001164</v>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>0.854166666666667</t>
+        </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
@@ -61775,7 +62164,7 @@
         <v>2022</v>
       </c>
       <c r="D312" s="2">
-        <v>1652140800</v>
+        <v>44691</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -61788,8 +62177,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H312" s="3">
-        <v>1.011666666665406</v>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
@@ -62007,7 +62398,7 @@
         <v>2022</v>
       </c>
       <c r="D313" s="2">
-        <v>1653264000</v>
+        <v>44704</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -62020,8 +62411,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H313" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
@@ -62224,7 +62617,7 @@
         <v>2022</v>
       </c>
       <c r="D314" s="2">
-        <v>1653523200</v>
+        <v>44707</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -62237,8 +62630,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H314" s="3">
-        <v>0.4700000000011642</v>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>0.291666666666667</t>
+        </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -62441,7 +62836,7 @@
         <v>2022</v>
       </c>
       <c r="D315" s="2">
-        <v>1653609600</v>
+        <v>44708</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -62454,8 +62849,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H315" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
@@ -63322,7 +63719,7 @@
         <v>1998</v>
       </c>
       <c r="D321" s="2">
-        <v>880848000</v>
+        <v>35764</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -63490,7 +63887,7 @@
         <v>1998</v>
       </c>
       <c r="D322" s="2">
-        <v>885945600</v>
+        <v>35823</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -63498,8 +63895,10 @@
       <c r="F322">
         <v>1</v>
       </c>
-      <c r="H322" s="3">
-        <v>0.9491666666654055</v>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>0.770833333333333</t>
+        </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
@@ -63692,7 +64091,7 @@
         <v>2002</v>
       </c>
       <c r="D323" s="2">
-        <v>1010361600</v>
+        <v>37263</v>
       </c>
       <c r="E323">
         <v>1</v>
@@ -63700,8 +64099,10 @@
       <c r="F323">
         <v>1</v>
       </c>
-      <c r="H323" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
@@ -63894,7 +64295,7 @@
         <v>2002</v>
       </c>
       <c r="D324" s="2">
-        <v>1006214400</v>
+        <v>37215</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -63902,8 +64303,10 @@
       <c r="F324">
         <v>1</v>
       </c>
-      <c r="H324" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
@@ -64106,7 +64509,7 @@
         <v>2002</v>
       </c>
       <c r="D325" s="2">
-        <v>1017619200</v>
+        <v>37347</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -64114,8 +64517,10 @@
       <c r="F325">
         <v>2</v>
       </c>
-      <c r="H325" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
@@ -64298,7 +64703,7 @@
         <v>2002</v>
       </c>
       <c r="D326" s="2">
-        <v>1016409600</v>
+        <v>37333</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -64306,8 +64711,10 @@
       <c r="F326">
         <v>2</v>
       </c>
-      <c r="H326" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
@@ -64495,7 +64902,7 @@
         <v>2006</v>
       </c>
       <c r="D327" s="2">
-        <v>1128384000</v>
+        <v>38629</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -64503,8 +64910,10 @@
       <c r="F327">
         <v>1</v>
       </c>
-      <c r="H327" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
@@ -64714,7 +65123,7 @@
         <v>2006</v>
       </c>
       <c r="D328" s="2">
-        <v>1133049600</v>
+        <v>38683</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -64722,8 +65131,10 @@
       <c r="F328">
         <v>1</v>
       </c>
-      <c r="H328" s="3">
-        <v>1.011666666665406</v>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
@@ -64908,7 +65319,7 @@
         <v>2018</v>
       </c>
       <c r="D329" s="2">
-        <v>1510012800</v>
+        <v>43046</v>
       </c>
       <c r="E329">
         <v>1</v>
@@ -64916,8 +65327,10 @@
       <c r="F329">
         <v>1</v>
       </c>
-      <c r="H329" s="3">
-        <v>0.5950000000011642</v>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>0.416666666666667</t>
+        </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
@@ -65112,7 +65525,7 @@
         <v>2010</v>
       </c>
       <c r="D330" s="2">
-        <v>1264291200</v>
+        <v>40202</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -65303,7 +65716,7 @@
         <v>2010</v>
       </c>
       <c r="D331" s="2">
-        <v>1264464000</v>
+        <v>40204</v>
       </c>
       <c r="E331">
         <v>1</v>
@@ -65311,8 +65724,10 @@
       <c r="F331">
         <v>1</v>
       </c>
-      <c r="H331" s="3">
-        <v>1.011666666665406</v>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
@@ -65522,7 +65937,7 @@
         <v>2010</v>
       </c>
       <c r="D332" s="2">
-        <v>1253577600</v>
+        <v>40078</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -65530,8 +65945,10 @@
       <c r="F332">
         <v>1</v>
       </c>
-      <c r="H332" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
@@ -65726,7 +66143,7 @@
         <v>2010</v>
       </c>
       <c r="D333" s="2">
-        <v>1264636800</v>
+        <v>40206</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -65734,8 +66151,10 @@
       <c r="F333">
         <v>1</v>
       </c>
-      <c r="H333" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
@@ -65935,7 +66354,7 @@
         <v>2014</v>
       </c>
       <c r="D334" s="2">
-        <v>1382572800</v>
+        <v>41571</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -65943,8 +66362,10 @@
       <c r="F334">
         <v>1</v>
       </c>
-      <c r="H334" s="3">
-        <v>0.7616666666654055</v>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>0.583333333333333</t>
+        </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
@@ -65976,7 +66397,7 @@
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>primero: Johnny Araya Monge;José Miguel Corrales Bolaños;Otto Guevara;Rodolfo Piza Rocafort;Luis Guillermo Solís;José María Villalta; segundo: José Manuel Echandi;Héctor Monestel Herrera;Sergio Mena</t>
+          <t>primero: Johnny Araya Monge;José Miguel Corrales Bolaños;Otto Guevara;Rodolfo Piza;Luis Guillermo Solís;José María Villalta; segundo: José Manuel Echandi;Héctor Monestel Herrera;Sergio Mena</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
@@ -66147,7 +66568,7 @@
         <v>2014</v>
       </c>
       <c r="D335" s="2">
-        <v>1384300800</v>
+        <v>41591</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -66155,8 +66576,10 @@
       <c r="F335">
         <v>1</v>
       </c>
-      <c r="H335" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
@@ -66183,7 +66606,7 @@
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>primer bloque: Sergio Mena;José Miguel Corrales Bolaños;Oscar López;Héctor Monestel Herrera;segundo bloque: Otto Guevara;Rodolfo Piza Rocafort;Luis Guillermo Solis;Jose María Villalta</t>
+          <t>primer bloque: Sergio Mena;José Miguel Corrales Bolaños;Oscar López;Héctor Monestel Herrera;segundo bloque: Otto Guevara;Rodolfo Piza;Luis Guillermo Solis;Jose María Villalta</t>
         </is>
       </c>
       <c r="Q335" t="inlineStr">
@@ -66346,7 +66769,7 @@
         <v>2014</v>
       </c>
       <c r="D336" s="2">
-        <v>1388880000</v>
+        <v>41644</v>
       </c>
       <c r="E336">
         <v>1</v>
@@ -66354,8 +66777,10 @@
       <c r="F336">
         <v>1</v>
       </c>
-      <c r="H336" s="3">
-        <v>1.011666666665406</v>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
@@ -66382,7 +66807,7 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>primero: Hector Monestel Herrera;Jose Miguel Corrales Bolaños;Luis Guillermo Solís;Carlos Avendaño;Otto Guevara;Walter Muñoz;segundo: Óscar López;José María Villalta; José Manuel Echandi;Johnny Araya Monge;Justo Orozco;Rodolfo Piza Rocafort;Sergio Mena</t>
+          <t>primero: Hector Monestel Herrera;Jose Miguel Corrales Bolaños;Luis Guillermo Solís;Carlos Avendaño;Otto Guevara;Walter Muñoz;segundo: Óscar López;José María Villalta; José Manuel Echandi;Johnny Araya Monge;Justo Orozco;Rodolfo Piza;Sergio Mena</t>
         </is>
       </c>
       <c r="Q336" t="inlineStr">
@@ -66550,7 +66975,7 @@
         <v>2014</v>
       </c>
       <c r="D337" s="2">
-        <v>1389139200</v>
+        <v>41647</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -66578,7 +67003,7 @@
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>Otto Guevara;Rodolfo Piza Rocafort;Luis Guillermo Solís;José María Villalta</t>
+          <t>Otto Guevara;Rodolfo Piza;Luis Guillermo Solís;José María Villalta</t>
         </is>
       </c>
       <c r="Q337" t="inlineStr">
@@ -66733,7 +67158,7 @@
         <v>2014</v>
       </c>
       <c r="D338" s="2">
-        <v>1389484800</v>
+        <v>41651</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -66741,8 +67166,10 @@
       <c r="F338">
         <v>1</v>
       </c>
-      <c r="H338" s="3">
-        <v>1.053333333333285</v>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
@@ -66764,7 +67191,7 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Johnny Araya Monge;José María Villalta;Otto Guevara;Rodolfo Piza Rocafort;Luis Guillermo Solís</t>
+          <t>Johnny Araya Monge;José María Villalta;Otto Guevara;Rodolfo Piza;Luis Guillermo Solís</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr">
@@ -66930,7 +67357,7 @@
         <v>2014</v>
       </c>
       <c r="D339" s="2">
-        <v>1389744000</v>
+        <v>41654</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -66938,8 +67365,10 @@
       <c r="F339">
         <v>1</v>
       </c>
-      <c r="H339" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
@@ -66966,7 +67395,7 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>Rodolfo Piza Rocafort;Luis Guillermo Solís;Otto Guevara;Johnny Araya Monge;José María Villalta;Sergio Mena</t>
+          <t>Rodolfo Piza;Luis Guillermo Solís;Otto Guevara;Johnny Araya Monge;José María Villalta;Sergio Mena</t>
         </is>
       </c>
       <c r="Q339" t="inlineStr">
@@ -67127,7 +67556,7 @@
         <v>2014</v>
       </c>
       <c r="D340" s="2">
-        <v>1390089600</v>
+        <v>41658</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -67135,8 +67564,10 @@
       <c r="F340">
         <v>1</v>
       </c>
-      <c r="H340" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
@@ -67163,7 +67594,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>Luis Guillermo Solís;José María Villalta;Rodolfo Jhonny Araya;Otto Guevara;Rodolfo Piza Rocafort</t>
+          <t>Luis Guillermo Solís;José María Villalta;Rodolfo Jhonny Araya;Otto Guevara;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q340" t="inlineStr">
@@ -67329,7 +67760,7 @@
         <v>2014</v>
       </c>
       <c r="D341" s="2">
-        <v>1390780800</v>
+        <v>41666</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -67337,8 +67768,10 @@
       <c r="F341">
         <v>1</v>
       </c>
-      <c r="H341" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
@@ -67370,7 +67803,7 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>Rodolfo Piza Rocafort;Johnny Araya Monge;José María Villalta;Otto Guevara;Luis Guillermo Solís</t>
+          <t>Rodolfo Piza;Johnny Araya Monge;José María Villalta;Otto Guevara;Luis Guillermo Solís</t>
         </is>
       </c>
       <c r="Q341" t="inlineStr">
@@ -67541,7 +67974,7 @@
         <v>2014</v>
       </c>
       <c r="D342" s="2">
-        <v>1409702400</v>
+        <v>41885</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -67549,8 +67982,10 @@
       <c r="F342">
         <v>1</v>
       </c>
-      <c r="H342" s="3">
-        <v>0.8658333333332848</v>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
@@ -67740,7 +68175,7 @@
         <v>2014</v>
       </c>
       <c r="D343" s="2">
-        <v>1390435200</v>
+        <v>41662</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -67748,8 +68183,10 @@
       <c r="F343">
         <v>1</v>
       </c>
-      <c r="H343" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
@@ -67781,7 +68218,7 @@
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>Johnny Araya Monge;Rodolfo Piza Rocafort;Otto Guevara;Luis Guillermo Solis</t>
+          <t>Johnny Araya Monge;Rodolfo Piza;Otto Guevara;Luis Guillermo Solis</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -67939,7 +68376,7 @@
         <v>2018</v>
       </c>
       <c r="D344" s="2">
-        <v>1509580800</v>
+        <v>43041</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -67947,8 +68384,10 @@
       <c r="F344">
         <v>1</v>
       </c>
-      <c r="H344" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
@@ -67980,7 +68419,7 @@
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>Antonio Álvarez Desanti;Óscar López;Fabricio Alvarado Muñoz;Rodolfo Piza Rocafort;Juan Diego Castro</t>
+          <t>Antonio Álvarez Desanti;Óscar López;Fabricio Alvarado Muñoz;Rodolfo Piza;Juan Diego Castro</t>
         </is>
       </c>
       <c r="U344" t="inlineStr">
@@ -68143,7 +68582,7 @@
         <v>2018</v>
       </c>
       <c r="D345" s="2">
-        <v>1509580800</v>
+        <v>43041</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -68151,8 +68590,10 @@
       <c r="F345">
         <v>1</v>
       </c>
-      <c r="H345" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
@@ -68184,7 +68625,7 @@
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>Mario Redondo Poveda;Otto Guevara;Rodolfo Piza Rocafort;Juan Diego Castro</t>
+          <t>Mario Redondo Poveda;Otto Guevara;Rodolfo Piza;Juan Diego Castro</t>
         </is>
       </c>
       <c r="U345" t="inlineStr">
@@ -68352,7 +68793,7 @@
         <v>2018</v>
       </c>
       <c r="D346" s="2">
-        <v>1521676800</v>
+        <v>43181</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -68360,8 +68801,10 @@
       <c r="F346">
         <v>2</v>
       </c>
-      <c r="H346" s="3">
-        <v>1.011666666665406</v>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
@@ -68551,7 +68994,7 @@
         <v>2018</v>
       </c>
       <c r="D347" s="2">
-        <v>1515283200</v>
+        <v>43107</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -68559,8 +69002,10 @@
       <c r="F347">
         <v>1</v>
       </c>
-      <c r="H347" s="3">
-        <v>0.7720833333332848</v>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>0.59375</t>
+        </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
@@ -68587,7 +69032,7 @@
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>primero: Mario Redondo Poveda;Oscar López;Edgardo Araya;Juan Diego Castro;Antonio Álvarez Desanti;Sergio Mena;Fabricio Alvarado Muñoz; segundo: Rodolfo Hernández;Carlos Alvarado Quesada;Jhon Vega;Rodolfo Piza Rocafort;Otto Guevara;Stephanie Campos</t>
+          <t>primero: Mario Redondo Poveda;Oscar López;Edgardo Araya;Juan Diego Castro;Antonio Álvarez Desanti;Sergio Mena;Fabricio Alvarado Muñoz; segundo: Rodolfo Hernández;Carlos Alvarado Quesada;Jhon Vega;Rodolfo Piza;Otto Guevara;Stephanie Campos</t>
         </is>
       </c>
       <c r="Q347" t="inlineStr">
@@ -68758,7 +69203,7 @@
         <v>2018</v>
       </c>
       <c r="D348" s="2">
-        <v>1521936000</v>
+        <v>43184</v>
       </c>
       <c r="E348">
         <v>1</v>
@@ -68766,8 +69211,10 @@
       <c r="F348">
         <v>2</v>
       </c>
-      <c r="H348" s="3">
-        <v>1.022083333333285</v>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>0.84375</t>
+        </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
@@ -68957,7 +69404,7 @@
         <v>2018</v>
       </c>
       <c r="D349" s="2">
-        <v>1517443200</v>
+        <v>43132</v>
       </c>
       <c r="E349">
         <v>1</v>
@@ -68965,8 +69412,10 @@
       <c r="F349">
         <v>1</v>
       </c>
-      <c r="H349" s="3">
-        <v>1.011666666665406</v>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
@@ -68993,7 +69442,7 @@
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>Carlos Alvarado Quesada;Juan Diego Castro;Antonio Álvarez Desanti;Rodolfo Hernández;Fabricio Alvarado Muñoz;Rodolfo Piza Rocafort</t>
+          <t>Carlos Alvarado Quesada;Juan Diego Castro;Antonio Álvarez Desanti;Rodolfo Hernández;Fabricio Alvarado Muñoz;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q349" t="inlineStr">
@@ -69156,7 +69605,7 @@
         <v>2018</v>
       </c>
       <c r="D350" s="2">
-        <v>1522108800</v>
+        <v>43186</v>
       </c>
       <c r="E350">
         <v>1</v>
@@ -69164,8 +69613,10 @@
       <c r="F350">
         <v>2</v>
       </c>
-      <c r="H350" s="3">
-        <v>1.011666666665406</v>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
@@ -69353,7 +69804,7 @@
         <v>2018</v>
       </c>
       <c r="D351" s="2">
-        <v>1517011200</v>
+        <v>43127</v>
       </c>
       <c r="E351">
         <v>1</v>
@@ -69514,7 +69965,7 @@
         <v>2018</v>
       </c>
       <c r="D352" s="2">
-        <v>1517270400</v>
+        <v>43130</v>
       </c>
       <c r="E352">
         <v>1</v>
@@ -69522,8 +69973,10 @@
       <c r="F352">
         <v>1</v>
       </c>
-      <c r="H352" s="3">
-        <v>0.9491666666654055</v>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>0.770833333333333</t>
+        </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
@@ -69716,7 +70169,7 @@
         <v>2018</v>
       </c>
       <c r="D353" s="2">
-        <v>1517270400</v>
+        <v>43130</v>
       </c>
       <c r="E353">
         <v>1</v>
@@ -69724,8 +70177,10 @@
       <c r="F353">
         <v>1</v>
       </c>
-      <c r="H353" s="3">
-        <v>1.011666666665406</v>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
@@ -69752,7 +70207,7 @@
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>Carlos Alvarado Quesada;Rodolfo Piza Rocafort;Juan Diego Castro;Antonio Álvarez Desanti;Fabricio Alvarado Muñoz</t>
+          <t>Carlos Alvarado Quesada;Rodolfo Piza;Juan Diego Castro;Antonio Álvarez Desanti;Fabricio Alvarado Muñoz</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr">
@@ -69920,7 +70375,7 @@
         <v>2018</v>
       </c>
       <c r="D354" s="2">
-        <v>1516838400</v>
+        <v>43125</v>
       </c>
       <c r="E354">
         <v>1</v>
@@ -69928,8 +70383,10 @@
       <c r="F354">
         <v>1</v>
       </c>
-      <c r="H354" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
@@ -69961,7 +70418,7 @@
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>Rodolfo Piza Rocafort;Fabricio Alvarado Muñoz;Antonio Álvarez Desanti;Edgardo Araya;Rodolfo Hernández;Juan Diego Castro</t>
+          <t>Rodolfo Piza;Fabricio Alvarado Muñoz;Antonio Álvarez Desanti;Edgardo Araya;Rodolfo Hernández;Juan Diego Castro</t>
         </is>
       </c>
       <c r="Q354" t="inlineStr">
@@ -70137,7 +70594,7 @@
         <v>2018</v>
       </c>
       <c r="D355" s="2">
-        <v>1521417600</v>
+        <v>43178</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -70145,8 +70602,10 @@
       <c r="F355">
         <v>2</v>
       </c>
-      <c r="H355" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
@@ -70351,7 +70810,7 @@
         <v>2018</v>
       </c>
       <c r="D356" s="2">
-        <v>1508284800</v>
+        <v>43026</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -70359,8 +70818,10 @@
       <c r="F356">
         <v>1</v>
       </c>
-      <c r="H356" s="3">
-        <v>0.7616666666654055</v>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>0.583333333333333</t>
+        </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
@@ -70568,7 +71029,7 @@
         <v>2018</v>
       </c>
       <c r="D357" s="2">
-        <v>1508889600</v>
+        <v>43033</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -70576,8 +71037,10 @@
       <c r="F357">
         <v>1</v>
       </c>
-      <c r="H357" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
@@ -70604,7 +71067,7 @@
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>Edgardo Araya;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro;Otto Guevara;Rodolfo Piza Rocafort</t>
+          <t>Edgardo Araya;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro;Otto Guevara;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q357" t="inlineStr">
@@ -70770,7 +71233,7 @@
         <v>2018</v>
       </c>
       <c r="D358" s="2">
-        <v>1484697600</v>
+        <v>42753</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -70778,8 +71241,10 @@
       <c r="F358">
         <v>1</v>
       </c>
-      <c r="H358" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
@@ -70811,7 +71276,7 @@
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>Antonio Álvarez Desanti;Rodolfo Piza Rocafort;Juan Diego Castro;Rodolfo Hernández</t>
+          <t>Antonio Álvarez Desanti;Rodolfo Piza;Juan Diego Castro;Rodolfo Hernández</t>
         </is>
       </c>
       <c r="S358">
@@ -70972,7 +71437,7 @@
         <v>2018</v>
       </c>
       <c r="D359" s="2">
-        <v>1522022400</v>
+        <v>43185</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -70980,8 +71445,10 @@
       <c r="F359">
         <v>2</v>
       </c>
-      <c r="H359" s="3">
-        <v>1.011666666665406</v>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
@@ -71169,7 +71636,7 @@
         <v>2018</v>
       </c>
       <c r="D360" s="2">
-        <v>1517184000</v>
+        <v>43129</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -71177,8 +71644,10 @@
       <c r="F360">
         <v>1</v>
       </c>
-      <c r="H360" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
@@ -71200,7 +71669,7 @@
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro;Rodolfo Hernández;Rodolfo Piza Rocafort</t>
+          <t>Fabricio Alvarado Muñoz;Carlos Alvarado Quesada;Antonio Álvarez Desanti;Juan Diego Castro;Rodolfo Hernández;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q360" t="inlineStr">
@@ -71366,7 +71835,7 @@
         <v>2018</v>
       </c>
       <c r="D361" s="2">
-        <v>1521590400</v>
+        <v>43180</v>
       </c>
       <c r="E361">
         <v>1</v>
@@ -71374,8 +71843,10 @@
       <c r="F361">
         <v>2</v>
       </c>
-      <c r="H361" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
@@ -71563,7 +72034,7 @@
         <v>2018</v>
       </c>
       <c r="D362" s="2">
-        <v>1500508800</v>
+        <v>42936</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -71571,8 +72042,10 @@
       <c r="F362">
         <v>1</v>
       </c>
-      <c r="H362" s="3">
-        <v>0.8658333333332848</v>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
@@ -71604,7 +72077,7 @@
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>Rodolfo Piza Rocafort;Juan Diego Castro</t>
+          <t>Rodolfo Piza;Juan Diego Castro</t>
         </is>
       </c>
       <c r="S362">
@@ -71765,7 +72238,7 @@
         <v>2018</v>
       </c>
       <c r="D363" s="2">
-        <v>1519776000</v>
+        <v>43159</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -71773,8 +72246,10 @@
       <c r="F363">
         <v>2</v>
       </c>
-      <c r="H363" s="3">
-        <v>0.8866666666654055</v>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>0.708333333333333</t>
+        </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
@@ -71964,7 +72439,7 @@
         <v>2018</v>
       </c>
       <c r="D364" s="2">
-        <v>1520208000</v>
+        <v>43164</v>
       </c>
       <c r="E364">
         <v>1</v>
@@ -71972,8 +72447,10 @@
       <c r="F364">
         <v>2</v>
       </c>
-      <c r="H364" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
@@ -72178,7 +72655,7 @@
         <v>2018</v>
       </c>
       <c r="D365" s="2">
-        <v>1520294400</v>
+        <v>43165</v>
       </c>
       <c r="E365">
         <v>1</v>
@@ -72186,8 +72663,10 @@
       <c r="F365">
         <v>2</v>
       </c>
-      <c r="H365" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
@@ -72397,7 +72876,7 @@
         <v>2018</v>
       </c>
       <c r="D366" s="2">
-        <v>1516752000</v>
+        <v>43124</v>
       </c>
       <c r="E366">
         <v>1</v>
@@ -72405,8 +72884,10 @@
       <c r="F366">
         <v>1</v>
       </c>
-      <c r="H366" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
@@ -72448,7 +72929,7 @@
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>Rodolfo Piza Rocafort</t>
+          <t>Rodolfo Piza</t>
         </is>
       </c>
       <c r="U366" t="inlineStr">
@@ -72616,7 +73097,7 @@
         <v>2022</v>
       </c>
       <c r="D367" s="2">
-        <v>1615507200</v>
+        <v>44267</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -72624,8 +73105,10 @@
       <c r="F367">
         <v>1</v>
       </c>
-      <c r="H367" s="3">
-        <v>0.9283333333332848</v>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
@@ -72835,7 +73318,7 @@
         <v>2022</v>
       </c>
       <c r="D368" s="2">
-        <v>1626048000</v>
+        <v>44389</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -72843,8 +73326,10 @@
       <c r="F368">
         <v>1</v>
       </c>
-      <c r="H368" s="3">
-        <v>0.8866666666654055</v>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>0.708333333333333</t>
+        </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
@@ -72876,7 +73361,7 @@
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>Eliecer Feinzaig;Rodrigo Chaves;José María Figueres;José María Villalta;Lineth Saborío;Rodolfo Hernández;Rodolfo Piza Rocafort</t>
+          <t>Eliecer Feinzaig;Rodrigo Chaves;José María Figueres;José María Villalta;Lineth Saborío;Rodolfo Hernández;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q368" t="inlineStr">
@@ -73057,7 +73542,7 @@
         <v>2022</v>
       </c>
       <c r="D369" s="2">
-        <v>1651363200</v>
+        <v>44682</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -73252,7 +73737,7 @@
         <v>2022</v>
       </c>
       <c r="D370" s="2">
-        <v>1661990400</v>
+        <v>44805</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -73265,8 +73750,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H370" s="3">
-        <v>1.022083333333285</v>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>0.84375</t>
+        </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
@@ -73298,7 +73785,7 @@
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>el primero: Welmer Ramos;Fabricio Alvarado Muñoz;Federico Malavassi;Carmen Quesada;Greivin Moya;Martín Chinchilla; segundo: Lineth Saborío;Rodolfo Hernández;Luis Alberto Cordero;Eduardo Cruickshank;Rodrigo Chaves;Eliecer Feinzaig; el tercero: Christian Rivera;Maricela Morales;Roulan Jiménez;Sergio Mena;Rolando Araya;Oscar López; el cuarto: Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza Rocafort;Jhon Vega;José María Villalta</t>
+          <t>el primero: Welmer Ramos;Fabricio Alvarado Muñoz;Federico Malavassi;Carmen Quesada;Greivin Moya;Martín Chinchilla; segundo: Lineth Saborío;Rodolfo Hernández;Luis Alberto Cordero;Eduardo Cruickshank;Rodrigo Chaves;Eliecer Feinzaig; el tercero: Christian Rivera;Maricela Morales;Roulan Jiménez;Sergio Mena;Rolando Araya;Oscar López; el cuarto: Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza;Jhon Vega;José María Villalta</t>
         </is>
       </c>
       <c r="Q370" t="inlineStr">
@@ -73479,7 +73966,7 @@
         <v>2022</v>
       </c>
       <c r="D371" s="2">
-        <v>1642377600</v>
+        <v>44578</v>
       </c>
       <c r="E371">
         <v>1</v>
@@ -73492,8 +73979,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H371" s="3">
-        <v>1.011666666665406</v>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
@@ -73716,7 +74205,7 @@
         <v>2022</v>
       </c>
       <c r="D372" s="2">
-        <v>1642464000</v>
+        <v>44579</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -73729,8 +74218,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H372" s="3">
-        <v>1.011666666665406</v>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
@@ -73920,7 +74411,7 @@
         <v>2022</v>
       </c>
       <c r="D373" s="2">
-        <v>1642550400</v>
+        <v>44580</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -73933,8 +74424,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H373" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
@@ -74129,7 +74622,7 @@
         <v>2022</v>
       </c>
       <c r="D374" s="2">
-        <v>1642982400</v>
+        <v>44585</v>
       </c>
       <c r="E374">
         <v>1</v>
@@ -74142,8 +74635,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H374" s="3">
-        <v>1.011666666665406</v>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
@@ -74170,7 +74665,7 @@
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>al primero: Fabricio Alvarado Muñoz;Greivin Moya;Lineth Saborío;Rodolfo Hernández; al segundo: Luis Alberto Cordero;Eduardo Cruickshank;Maricela Morales; al tercero: Rolando Araya;Oscar López;Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza Rocafort;José María Villalta</t>
+          <t>al primero: Fabricio Alvarado Muñoz;Greivin Moya;Lineth Saborío;Rodolfo Hernández; al segundo: Luis Alberto Cordero;Eduardo Cruickshank;Maricela Morales; al tercero: Rolando Araya;Oscar López;Natalia Díaz;José María Figueres;Oscar Campos;Walter Muñoz;Rodolfo Piza;José María Villalta</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -74341,7 +74836,7 @@
         <v>2022</v>
       </c>
       <c r="D375" s="2">
-        <v>1643155200</v>
+        <v>44587</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -74354,8 +74849,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H375" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
@@ -74578,7 +75075,7 @@
         <v>2022</v>
       </c>
       <c r="D376" s="2">
-        <v>1643673600</v>
+        <v>44593</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -74591,8 +75088,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H376" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
@@ -74810,7 +75309,7 @@
         <v>2022</v>
       </c>
       <c r="D377" s="2">
-        <v>1643673600</v>
+        <v>44593</v>
       </c>
       <c r="E377">
         <v>1</v>
@@ -74823,8 +75322,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H377" s="3">
-        <v>0.8866666666654055</v>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>0.708333333333333</t>
+        </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
@@ -74861,7 +75362,7 @@
       </c>
       <c r="P377" t="inlineStr">
         <is>
-          <t>Rolando Araya;Luis Alberto Cordero;Oscar López;Federico Malavassi;Sergio Mena;Rodolfo Piza Rocafort</t>
+          <t>Rolando Araya;Luis Alberto Cordero;Oscar López;Federico Malavassi;Sergio Mena;Rodolfo Piza</t>
         </is>
       </c>
       <c r="Q377" t="inlineStr">
@@ -75037,7 +75538,7 @@
         <v>2022</v>
       </c>
       <c r="D378" s="2">
-        <v>1643673600</v>
+        <v>44593</v>
       </c>
       <c r="E378">
         <v>1</v>
@@ -75050,8 +75551,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H378" s="3">
-        <v>1.011666666665406</v>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
@@ -75259,7 +75762,7 @@
         <v>2022</v>
       </c>
       <c r="D379" s="2">
-        <v>1643846400</v>
+        <v>44595</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -75272,8 +75775,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H379" s="3">
-        <v>1.011666666665406</v>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
@@ -75478,7 +75983,7 @@
         <v>2022</v>
       </c>
       <c r="D380" s="2">
-        <v>1643932800</v>
+        <v>44596</v>
       </c>
       <c r="E380">
         <v>1</v>
@@ -75491,8 +75996,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H380" s="3">
-        <v>1.011666666665406</v>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
@@ -75690,7 +76197,7 @@
         <v>2022</v>
       </c>
       <c r="D381" s="2">
-        <v>1647993600</v>
+        <v>44643</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -75703,8 +76210,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H381" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
@@ -75922,7 +76431,7 @@
         <v>2022</v>
       </c>
       <c r="D382" s="2">
-        <v>1648080000</v>
+        <v>44644</v>
       </c>
       <c r="E382">
         <v>1</v>
@@ -75935,8 +76444,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H382" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
@@ -76139,7 +76650,7 @@
         <v>2022</v>
       </c>
       <c r="D383" s="2">
-        <v>1648512000</v>
+        <v>44649</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -76152,8 +76663,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H383" s="3">
-        <v>0.6366666666654055</v>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
@@ -76351,7 +76864,7 @@
         <v>2022</v>
       </c>
       <c r="D384" s="2">
-        <v>1648684800</v>
+        <v>44651</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -76364,8 +76877,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H384" s="3">
-        <v>1.011666666665406</v>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
@@ -76560,7 +77075,7 @@
         <v>2022</v>
       </c>
       <c r="D385" s="2">
-        <v>1648771200</v>
+        <v>44652</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -76573,8 +77088,10 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H385" s="3">
-        <v>1.011666666665406</v>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>0.833333333333333</t>
+        </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
@@ -76772,7 +77289,7 @@
         <v>2016</v>
       </c>
       <c r="D386" s="2">
-        <v>1460937600</v>
+        <v>42478</v>
       </c>
       <c r="E386">
         <v>1</v>
@@ -76966,7 +77483,7 @@
         <v>1999</v>
       </c>
       <c r="D387" s="2">
-        <v>917827200</v>
+        <v>36192</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -77139,7 +77656,7 @@
         <v>2014</v>
       </c>
       <c r="D388" s="2">
-        <v>1389484800</v>
+        <v>41651</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -77333,7 +77850,7 @@
         <v>2019</v>
       </c>
       <c r="D389" s="2">
-        <v>1544918400</v>
+        <v>43450</v>
       </c>
       <c r="E389">
         <v>1</v>
@@ -77341,8 +77858,10 @@
       <c r="F389">
         <v>1</v>
       </c>
-      <c r="H389" s="3">
-        <v>0.9700000000011642</v>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>0.791666666666667</t>
+        </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
@@ -77527,7 +78046,7 @@
         <v>2019</v>
       </c>
       <c r="D390" s="2">
-        <v>1547337600</v>
+        <v>43478</v>
       </c>
       <c r="E390">
         <v>1</v>
@@ -77535,8 +78054,10 @@
       <c r="F390">
         <v>1</v>
       </c>
-      <c r="H390" s="3">
-        <v>0.9908333333332848</v>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>

--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -14518,7 +14518,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Jorge Arrate Mac Niven;Marco Enríquez-Ominami ;Sebastian Piñera;Eduardo Frei Ruiz-Tagle</t>
+          <t>Jorge Arrate Mac Niven;Marco Enríquez-Ominami;Sebastian Piñera;Eduardo Frei Ruiz-Tagle</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -27037,7 +27037,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Horacio Cartes; Efraín Alegre; Miguel Carrizosa; Mario Ferreiro</t>
+          <t>Horacio Cartes; Efraín Alegre; Miguel Carrizosa;Mario Ferreiro</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Horacio Cartes; Efraín Alegre; Miguel Carrizosa; Mario Ferreiro</t>
+          <t>Horacio Cartes; Efraín Alegre; Miguel Carrizosa;Mario Ferreiro</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -27454,7 +27454,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Efraín Alegre; Miguel Carrizosa; Mario Ferreiro; Lino Oviedo; Aníbal Carrillo</t>
+          <t>Efraín Alegre;Miguel Carrizosa;Mario Ferreiro;Lino Oviedo;Aníbal Carrillo</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -55088,7 +55088,7 @@
         </is>
       </c>
       <c r="AY279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ279">
         <v>6</v>
@@ -55296,7 +55296,7 @@
         </is>
       </c>
       <c r="AY280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ280">
         <v>6</v>
@@ -55507,7 +55507,7 @@
         </is>
       </c>
       <c r="AY281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ281">
         <v>6</v>
@@ -55716,7 +55716,7 @@
         </is>
       </c>
       <c r="AY282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ282">
         <v>6</v>
@@ -55940,7 +55940,7 @@
         </is>
       </c>
       <c r="AY283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ283">
         <v>6</v>
@@ -56161,7 +56161,7 @@
         </is>
       </c>
       <c r="AY284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ284">
         <v>6</v>
@@ -56370,7 +56370,7 @@
         </is>
       </c>
       <c r="AY285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ285">
         <v>6</v>
@@ -56579,7 +56579,7 @@
         </is>
       </c>
       <c r="AY286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ286">
         <v>6</v>
@@ -56788,7 +56788,7 @@
         </is>
       </c>
       <c r="AY287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ287">
         <v>6</v>
@@ -57002,7 +57002,7 @@
         </is>
       </c>
       <c r="AY288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ288">
         <v>6</v>
@@ -57211,7 +57211,7 @@
         </is>
       </c>
       <c r="AY289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ289">
         <v>6</v>
@@ -57425,7 +57425,7 @@
         </is>
       </c>
       <c r="AY290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ290">
         <v>6</v>
@@ -57641,7 +57641,7 @@
         </is>
       </c>
       <c r="AY291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ291">
         <v>6</v>
@@ -57850,7 +57850,7 @@
         </is>
       </c>
       <c r="AY292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ292">
         <v>6</v>
@@ -58069,7 +58069,7 @@
         </is>
       </c>
       <c r="AY293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ293">
         <v>6</v>
@@ -58292,7 +58292,7 @@
         </is>
       </c>
       <c r="AY294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ294">
         <v>6</v>

--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -12495,7 +12495,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Hernán Büchi Buc;Patricio Aylwin Azócar</t>
+          <t>Hernán Büchi;Patricio Aylwin Azócar</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Keiko Fujimori Higuchi;Óscar Oscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Noriega Salaverry;José Antonio Ñique de la Puente</t>
+          <t>Keiko Fujimori Higuchi;Oscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Noriega Salaverry;José Antonio Ñique de la Puente</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -27037,7 +27037,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Horacio Cartes; Efraín Alegre; Miguel Carrizosa;Mario Ferreiro</t>
+          <t>Horacio Cartes; Efraín Alegre;Miguel Carrizosa;Mario Ferreiro</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">

--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -22938,7 +22938,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Alianza Estratégica de Universidades Nacionales (Universidad Mayor de San Marcos, Universidad Nacional de Ingeniería; Universidad Agraria de la Molina);SINART;CIES;Colegio de Ingenieros del Perú;Consejo departamental de Lima</t>
+          <t>Alianza Estratégica de Universidades Nacionales (Universidad Mayor de San Marcos, Universidad Nacional de Ingeniería, Universidad Agraria de la Molina);Sociedad Nacional de Radio y Televisión;CIES;Consejo departamental de Lima del Colegio de Ingenieros del Perú</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -23019,7 +23019,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH109">
@@ -29115,8 +29115,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Cámara de Comercio 
-de Quito</t>
+          <t>Cámara de Comercio de Quito</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -33059,7 +33058,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Canal 4 Montecarlo;Canal 10 Uruguay; Canal 12 Teledoce;Semanario Búsqueda;medios públicos (Televisión Nacional, Radio Uruguay y TV Ciudad);APU Asociación de la Prensa Uruguaya</t>
+          <t>Canal 4 Montecarlo;Canal 10 Uruguay;Canal 12 Teledoce;Semanario Búsqueda;medios públicos (Televisión Nacional, Radio Uruguay y TV Ciudad);APU Asociación de la Prensa Uruguaya</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -38611,7 +38610,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Condederación de Empresarios de Bolivia</t>
+          <t>Confederación de Empresarios de Bolivia</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -46716,7 +46715,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Corporación Albavisión</t>
+          <t>Albavisión</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -47349,7 +47348,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Corporación Albavisión</t>
+          <t>Albavisión</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -47727,7 +47726,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Jóvenes por la Transparencia JxT;Alianza Global de Jóvenes Políticos Guatemala;Sociedad de Debate de la Universidad del Valle de Guatemala;Agrupación Política y Constructiva; Asociación de Debate de la Escuela de Ciencia Política de la Universidad de San Carlos</t>
+          <t>Jóvenes por la Transparencia JxT;Alianza Global de Jóvenes Políticos Guatemala;Sociedad de Debate de la Universidad del Valle de Guatemala;Agrupación Política y Constructiva;Asociación de Debate de la Escuela de Ciencia Política de la Universidad de San Carlos</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -47941,7 +47940,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Cámara de Industria de Guatemala CIG;TV Azteca Guate;KAS Konrad Adenauer Stiftung</t>
+          <t>CIG Cámara de la Industria de Guatemala;TV Azteca Guate;Fundación Konrad Adenauer</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -53222,7 +53221,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Universidad Santos Tomás;Canal Capital</t>
+          <t>Universidad Santo Tomás;Canal Capital</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -53904,7 +53903,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>RCN;La FM;Semana</t>
+          <t>RCN;La FM;Revista Semana</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -63902,7 +63901,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>La Nación;Semanario Universidad;El Financiero;Teletica Canal 7;Al Día;NC4;Monumental;Repretel Canal 6</t>
+          <t>La Nación;Semanario Universidad;El Financiero;Teletica Canal 7;Al Día;NC4;Radio Monumental;Repretel Canal 6</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">

--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -23202,7 +23202,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Keiko Fujimori Higuchi;Oscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;José Manuel Rodríguez Cuadros;Ricardo Noriega Salaverry;José Antonio Ñique de la Puente</t>
+          <t>Keiko Fujimori Higuchi;Oscar Luis Castañeda Lossio;Pedro Pablo Kuczynski;Ollanta Moisés Humala Tasso;Alejandro Toledo Manrique;Juliana Reymer Rodríguez;Humberto Pinazo Bella;Rafael Belaúnde Aubry;Jose Manuel Rodriguez Cuadros;Ricardo Noriega Salaverry;Jose Nique de la Puente</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Ollanta Moisés Humala Tasso;Ricardo Noriega Salaverry;Juliana Reymer Rodríguez;Manuel Rodríguez Cuadros;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;José Ñique de la Puente;Pedro Pablo Kuczynski;Humberto Pinazo Bella;Rafael Belaúnde Aubry;Oscar Luis Castañeda Lossio</t>
+          <t>Ollanta Moisés Humala Tasso;Ricardo Noriega Salaverry;Juliana Reymer Rodríguez;Jose Manuel Rodriguez Cuadros;Keiko Fujimori Higuchi;Alejandro Toledo Manrique;José Ñique de la Puente;Pedro Pablo Kuczynski;Humberto Pinazo Bella;Rafael Belaúnde Aubry;Oscar Luis Castañeda Lossio</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -26667,7 +26667,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Lino Oviedo;Blanca Odelard;Fernando Lugo;Pedro Fadul</t>
+          <t>Lino Oviedo;Blanca Ovelar;Fernando Lugo;Pedro Fadul</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>Ricardo Martinelli;Balbina Herrara</t>
+          <t>Ricardo Martinelli;Balbina Herrera</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
@@ -59505,7 +59505,7 @@
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>Isabella Mafla;David Ballesteros Ferreira;Juan David Ortiz Luna;Juan Sebastián Lamprea;Luis Ernesto Chia Estupiñan;Nicolás León;Juan Esteban Castañeda;María Alejandra Herrera;Valentina Bohorquez Polo;Juan David Contreras Aragón;Marlon Camilo Barros;Daniel Fabian Otola Martínez;José David Durán Leyva;Gabriela Ortega Navarro;José David Franco</t>
+          <t>Nota de La Nación CR dice: durante el día explicó a la prensa que la "agresión verbal y física" en una anterior visita a la UCR lo obligaron a declinar la invitación para ir al debate. Detalle sobre proceso judicial disponible en: https://www.tse.go.cr/revista/impresa/revista8.pdf</t>
         </is>
       </c>
       <c r="O301">
@@ -59589,7 +59589,7 @@
       </c>
       <c r="AG301" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH301">
@@ -63091,6 +63091,9 @@
       <c r="E317">
         <v>0</v>
       </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
       <c r="P317" t="inlineStr">
         <is>
           <t>sin datos</t>
@@ -63206,6 +63209,9 @@
       </c>
       <c r="AY317">
         <v>1</v>
+      </c>
+      <c r="AZ317">
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -63223,6 +63229,9 @@
       <c r="E318">
         <v>0</v>
       </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
       <c r="P318" t="inlineStr">
         <is>
           <t>sin datos</t>
@@ -63338,6 +63347,9 @@
       </c>
       <c r="AY318">
         <v>1</v>
+      </c>
+      <c r="AZ318">
+        <v>6</v>
       </c>
     </row>
     <row r="319">
@@ -63355,12 +63367,15 @@
       <c r="E319">
         <v>1</v>
       </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
       <c r="O319">
         <v>2</v>
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Arias Sánchez;Calderón Fournier</t>
+          <t>Oscar Arias Sanchez;Rafael Calderón Fournier</t>
         </is>
       </c>
       <c r="Q319" t="inlineStr">
@@ -63479,6 +63494,12 @@
       </c>
       <c r="AY319">
         <v>1</v>
+      </c>
+      <c r="AZ319">
+        <v>6</v>
+      </c>
+      <c r="BA319">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="320">
@@ -63496,6 +63517,9 @@
       <c r="E320">
         <v>0</v>
       </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
       <c r="P320" t="inlineStr">
         <is>
           <t>sin datos</t>
@@ -63611,6 +63635,9 @@
       </c>
       <c r="AY320">
         <v>1</v>
+      </c>
+      <c r="AZ320">
+        <v>8</v>
       </c>
     </row>
     <row r="321">
@@ -63628,6 +63655,9 @@
       <c r="E321">
         <v>0</v>
       </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
       <c r="P321" t="inlineStr">
         <is>
           <t>sin datos</t>
@@ -63743,6 +63773,9 @@
       </c>
       <c r="AY321">
         <v>1</v>
+      </c>
+      <c r="AZ321">
+        <v>7</v>
       </c>
     </row>
     <row r="322">
@@ -64148,6 +64181,11 @@
           <t>Teletica Canal 7</t>
         </is>
       </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>GRAN DEBATE NACIONAL 2002</t>
+        </is>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>estudio de Canal 7</t>
@@ -64159,11 +64197,11 @@
         </is>
       </c>
       <c r="O324">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Nota de La Nación CR dice: durante el día explicó a la prensa que la "agresión verbal y física" en una anterior visita a la UCR lo obligaron a declinar la invitación para ir al debate. REVISAR: ABEL PACHECO ERA PRESIDENTE, NO CANDIDATO</t>
+          <t>el primero: Otto Guevara;Abel Pacheco de la Espriella;Otton Solis;Rolando Araya;el segundo:Pablo Galo Angulo Casasola;José Hine García;Justo Orozco Álvarez;Jorge Walter Coto Molina;Marvin Calvo Montoya;el tercero: Walter Munoz;Daniel Reynolds Vargas;Vladimir de la Cruz de Lemos;Rolando Angulo Zeledón</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
@@ -64239,7 +64277,7 @@
         <v>0</v>
       </c>
       <c r="AJ324">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AK324" t="inlineStr">
         <is>
@@ -64318,7 +64356,7 @@
         <v>12</v>
       </c>
       <c r="BA324">
-        <v>0.08333333333333333</v>
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="325">
@@ -64994,7 +65032,7 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>cuatro tribunas academicas</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="U328" t="inlineStr">

--- a/tesis_doctorado/datav2023/base_final1v2023.xlsx
+++ b/tesis_doctorado/datav2023/base_final1v2023.xlsx
@@ -10387,7 +10387,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV Gazeta;O Estado de S.Paulo;UOL;Jovem Pan</t>
+          <t>TV Gazeta;O Estado de São Paulo;UOL;Jovem Pan</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -11470,11 +11470,6 @@
           <t>#DebateNaBand</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>estúdio da Band São Paulo</t>
@@ -11689,11 +11684,6 @@
           <t>SBT;CNN Brasil;O Estado de São Paulo;Veja;Terra;NovaBrasil FM</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>nos estúdios do SBT em São Paulo (Osasco)</t>
@@ -12117,11 +12107,6 @@
           <t>Rede Bandeirantes;TV Cultura;FSP;UOL</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>estúdio da Band São Paulo</t>
@@ -12708,7 +12693,7 @@
         <v>1993</v>
       </c>
       <c r="D60" s="2">
-        <v>34275</v>
+        <v>34247</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -12723,17 +12708,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ANATEL</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>sede del antiguo Congreso Nacional</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>participación de un panel de periodistas representantes de cada canal, un moderador/presentador y público en el estudio</t>
+          <t>Megavision</t>
         </is>
       </c>
       <c r="O60">
@@ -12741,62 +12716,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Eduardo Frei Ruiz-Tagle;Arturo Alessandri Besa</t>
+          <t>Manfred Max-Neef;José Piñera</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
           <t>sin ausencias conocidas</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>periodistas;presentes</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>puntuales</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
       <c r="AE60">
@@ -12807,84 +12732,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AH60">
-        <v>1</v>
-      </c>
       <c r="AI60">
         <v>0</v>
       </c>
       <c r="AJ60">
         <v>2</v>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AP60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AS60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AT60" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AU60" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AV60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AW60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AX60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
       </c>
       <c r="AY60">
         <v>1</v>
@@ -12906,10 +12758,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D61" s="2">
-        <v>36466</v>
+        <v>34299</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -12924,22 +12776,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ANATEL</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>hotel de santiago</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Bernardo Donoso</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Carolina Jiménez;Felipe Vidal;Juan Manuel Astorga;Claudia Araneda;Mauricio Hoffman;Susana Orno</t>
+          <t>Megavision</t>
         </is>
       </c>
       <c r="O61">
@@ -12947,65 +12784,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Joaquín Lavín Infante;Ricardo Lagos Escobar</t>
+          <t>Eugenio Pizzarro;Christian Reitze</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
           <t>sin ausencias conocidas</t>
-        </is>
-      </c>
-      <c r="S61">
-        <v>90</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>periodistas;moderador</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>bloques;puntuales</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
       <c r="AE61">
@@ -13016,98 +12800,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH61">
-        <v>1</v>
-      </c>
       <c r="AI61">
         <v>0</v>
       </c>
       <c r="AJ61">
         <v>2</v>
       </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AL61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AN61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AP61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AQ61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AS61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AT61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AU61" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="AV61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AW61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AX61" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="AY61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA61">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
@@ -13120,10 +12826,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="D62" s="2">
-        <v>38621</v>
+        <v>34275</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -13136,47 +12842,27 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0.458333333333333</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Universidad de Chile</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>"Debate un futuro para la educación chilena"</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>TRUE</t>
+          <t>Chilevisión;TVN;La Red;Megavision;UCTV</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>en el Salón de Honor de la Casa Central</t>
+          <t>sede del antiguo Congreso Nacional</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Luis Riveros</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>María Teresa Ruiz;Juan Asenjo;Francisco Orrego;Héctor Olav</t>
+          <t>participación de un panel de periodistas representantes de cada canal, un moderador/presentador y público en el estudio</t>
         </is>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante;Sebastian Piñera</t>
+          <t>Eduardo Frei Ruiz-Tagle;Arturo Alessandri Besa</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -13186,17 +12872,17 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>expertos</t>
+          <t>periodistas;presentes</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -13206,12 +12892,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>monotema</t>
+          <t>puntuales</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -13226,12 +12912,12 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Academia</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE62">
@@ -13239,12 +12925,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH62">
@@ -13254,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="AJ62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
@@ -13278,7 +12959,7 @@
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
@@ -13288,7 +12969,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -13303,12 +12984,12 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
@@ -13318,7 +12999,7 @@
       </c>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
@@ -13327,13 +13008,13 @@
         </is>
       </c>
       <c r="AY62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ62">
         <v>4</v>
       </c>
       <c r="BA62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
@@ -13346,10 +13027,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D63" s="2">
-        <v>38644</v>
+        <v>36466</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -13362,37 +13043,32 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0.916666666666667</t>
-        </is>
-      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Canal 13 Pontificia Universidad Católica de Chile;CNN en Español</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>"Foro Presidencial: Chile 2005"</t>
+          <t>ANATEL</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Espacio Riesco, comuna de Huechuraba.</t>
+          <t>hotel de santiago</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Constanza Santa María;Glenda Umaña</t>
+          <t>Bernardo Donoso</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Carolina Jiménez;Felipe Vidal;Juan Manuel Astorga;Claudia Araneda;Mauricio Hoffman;Susana Orno</t>
         </is>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Sebastian Piñera;Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante</t>
+          <t>Joaquín Lavín Infante;Ricardo Lagos Escobar</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -13401,11 +13077,11 @@
         </is>
       </c>
       <c r="S63">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>periodistas</t>
+          <t>periodistas;moderador</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -13415,12 +13091,12 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -13430,12 +13106,12 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>puntuales</t>
+          <t>bloques;puntuales</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -13458,17 +13134,22 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="AH63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI63">
         <v>0</v>
       </c>
       <c r="AJ63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK63" t="inlineStr">
         <is>
@@ -13537,17 +13218,17 @@
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AY63">
         <v>2</v>
       </c>
       <c r="AZ63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA63">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -13563,7 +13244,7 @@
         <v>2006</v>
       </c>
       <c r="D64" s="2">
-        <v>38672</v>
+        <v>38621</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -13576,24 +13257,39 @@
           <t>FALSE</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.458333333333333</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ANATEL</t>
+          <t>Universidad de Chile</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>"Debate presidencial 2005"</t>
+          <t>"Debate un futuro para la educación chilena"</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>centro de eventos CasaPiedra, ubicado en la comuna de Vitacura</t>
+          <t>en el Salón de Honor de la Casa Central</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Mauricio Hofmann;Iván Núñez;Libardo Buitrago;Mauricio Bustamante</t>
+          <t>Luis Riveros</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>María Teresa Ruiz;Juan Asenjo;Francisco Orrego;Héctor Olav</t>
         </is>
       </c>
       <c r="O64">
@@ -13601,7 +13297,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Sebastian Piñera;Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante</t>
+          <t>Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante;Sebastian Piñera</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -13611,12 +13307,12 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>moderadores</t>
+          <t>expertos</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -13626,37 +13322,37 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>puntuales</t>
+          <t>monotema</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Academia</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="AE64">
@@ -13667,8 +13363,13 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="AH64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -13693,7 +13394,7 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -13708,7 +13409,7 @@
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AR64" t="inlineStr">
@@ -13728,7 +13429,7 @@
       </c>
       <c r="AU64" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AV64" t="inlineStr">
@@ -13738,7 +13439,7 @@
       </c>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
@@ -13769,13 +13470,13 @@
         <v>2006</v>
       </c>
       <c r="D65" s="2">
-        <v>38721</v>
+        <v>38644</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -13789,25 +13490,30 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ANATEL</t>
+          <t>Canal 13 Pontificia Universidad Católica de Chile;CNN en Español</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>"Foro Presidencial: Chile 2005"</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Espacio Riesco a las 22 (UTC-3).</t>
+          <t>Espacio Riesco, comuna de Huechuraba.</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Amaro Gómez-Pablos;Libardo Buitrago;Alejandro Guillier;Constanza Santa María</t>
+          <t>Constanza Santa María;Glenda Umaña</t>
         </is>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Sebastian Piñera;Michelle Bachelet</t>
+          <t>Sebastian Piñera;Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -13815,9 +13521,12 @@
           <t>sin ausencias conocidas</t>
         </is>
       </c>
+      <c r="S65">
+        <v>60</v>
+      </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>moderadores</t>
+          <t>periodistas</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -13870,17 +13579,17 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI65">
         <v>0</v>
       </c>
       <c r="AJ65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
@@ -13899,12 +13608,12 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AP65" t="inlineStr">
@@ -13956,7 +13665,7 @@
         <v>2</v>
       </c>
       <c r="AZ65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA65">
         <v>1</v>
@@ -13975,7 +13684,7 @@
         <v>2006</v>
       </c>
       <c r="D66" s="2">
-        <v>38685</v>
+        <v>38672</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -13983,64 +13692,92 @@
       <c r="F66">
         <v>1</v>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ENADE / ICARE</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>DUDA</t>
-        </is>
+          <t>ANATEL</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>"Debate presidencial 2005"</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>centro de eventos CasaPiedra, ubicado en la comuna de Vitacura</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Mauricio Hofmann;Iván Núñez;Libardo Buitrago;Mauricio Bustamante</t>
+        </is>
+      </c>
+      <c r="O66">
+        <v>4</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>sin datos</t>
+          <t>Sebastian Piñera;Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>sin datos</t>
+          <t>sin ausencias conocidas</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>moderadores</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>puntuales</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE66">
@@ -14051,74 +13788,83 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AH66">
+        <v>4</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>4</v>
+      </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AL66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AM66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AR66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AS66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AY66">
@@ -14126,6 +13872,9 @@
       </c>
       <c r="AZ66">
         <v>4</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -14141,35 +13890,45 @@
         <v>2006</v>
       </c>
       <c r="D67" s="2">
-        <v>38650</v>
+        <v>38721</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.916666666666667</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ComunidadMujer</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>DUDA</t>
+          <t>ANATEL</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>edificio "Diego Portales"</t>
+          <t>Espacio Riesco a las 22 (UTC-3).</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Amaro Gómez-Pablos;Libardo Buitrago;Alejandro Guillier;Constanza Santa María</t>
         </is>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante;Sebastian Piñera</t>
+          <t>Sebastian Piñera;Michelle Bachelet</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -14179,42 +13938,52 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>moderadores</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>monotema</t>
+          <t>puntuales</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE67">
@@ -14225,65 +13994,68 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AH67">
+        <v>4</v>
+      </c>
       <c r="AI67">
         <v>0</v>
       </c>
       <c r="AJ67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
@@ -14293,7 +14065,7 @@
       </c>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
@@ -14305,7 +14077,7 @@
         <v>2</v>
       </c>
       <c r="AZ67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA67">
         <v>1</v>
@@ -14321,10 +14093,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D68" s="2">
-        <v>40081</v>
+        <v>38685</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -14334,40 +14106,27 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>ComunidadMujer</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>“Voz de Mujer 2010”</t>
+          <t>ENADE / ICARE</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Monica Perez</t>
-        </is>
-      </c>
-      <c r="O68">
-        <v>4</v>
+          <t>DUDA</t>
+        </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Jorge Arrate Mac Niven;Marco Enríquez-Ominami ;Sebastian Piñera;Eduardo Frei Ruiz-Tagle</t>
+          <t>sin datos</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>sin ausencias conocidas</t>
+          <t>sin datos</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>vrituales</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -14377,12 +14136,12 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -14392,27 +14151,17 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>monotema</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
           <t>NA</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>3.0</t>
         </is>
       </c>
       <c r="AE68">
@@ -14423,83 +14172,74 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AH68">
-        <v>1</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>4</v>
-      </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AR68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AS68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AV68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AY68">
@@ -14507,9 +14247,6 @@
       </c>
       <c r="AZ68">
         <v>4</v>
-      </c>
-      <c r="BA68">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -14522,10 +14259,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D69" s="2">
-        <v>40079</v>
+        <v>38650</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -14533,24 +14270,19 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>0.944444444444444</t>
-        </is>
-      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TVN</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>"Decisión '09"</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Alejandro Guillier</t>
+          <t>ComunidadMujer</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DUDA</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>edificio "Diego Portales"</t>
         </is>
       </c>
       <c r="O69">
@@ -14558,7 +14290,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Jorge Arrate Mac Niven;Marco Enríquez-Ominami;Sebastian Piñera;Eduardo Frei Ruiz-Tagle</t>
+          <t>Michelle Bachelet;Tomás Hirsch Goldschmidt;Joaquín Lavín Infante;Sebastian Piñera</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -14568,52 +14300,42 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>moderadores</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>puntuales</t>
+          <t>monotema</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
           <t>NA</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
       <c r="AE69">
@@ -14624,9 +14346,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AH69">
-        <v>1</v>
-      </c>
       <c r="AI69">
         <v>0</v>
       </c>
@@ -14635,57 +14354,57 @@
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AL69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AS69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AV69" t="inlineStr">
@@ -14695,7 +14414,7 @@
       </c>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
@@ -14726,7 +14445,7 @@
         <v>2010</v>
       </c>
       <c r="D70" s="2">
-        <v>40095</v>
+        <v>40081</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -14734,29 +14453,24 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0.354166666666667</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ARCHI;Universidad Mayor</t>
+          <t>ComunidadMujer</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>“Voz de Mujer 2010”</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>DUDA</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Campus de la Universidad</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Alejandro de la Carrera;Verónica Franco;Cony Stipicic;Beatriz Sánche</t>
+          <t>Monica Perez</t>
         </is>
       </c>
       <c r="O70">
@@ -14772,17 +14486,14 @@
           <t>sin ausencias conocidas</t>
         </is>
       </c>
-      <c r="S70">
-        <v>80</v>
-      </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>moderadores</t>
+          <t>vrituales</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -14797,12 +14508,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>puntuales</t>
+          <t>monotema</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -14812,17 +14523,17 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Mujeres</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AE70">
@@ -14830,11 +14541,11 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI70">
         <v>0</v>
@@ -14859,7 +14570,7 @@
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -14894,7 +14605,7 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AV70" t="inlineStr">
@@ -14904,7 +14615,7 @@
       </c>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
@@ -14935,7 +14646,7 @@
         <v>2010</v>
       </c>
       <c r="D71" s="2">
-        <v>40123</v>
+        <v>40079</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -14945,32 +14656,22 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>0.944444444444444</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>ANP Asociación Nacional de la Prensa</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>por primera vez en regiones. ciudad de Talca. En Hotel Casino</t>
+          <t>TVN</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>"Decisión '09"</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Guillermo Turner</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Francisco Puga;Antonio Faundes;Mauricio Rivas;Alejandro Toro</t>
+          <t>Alejandro Guillier</t>
         </is>
       </c>
       <c r="O71">
@@ -14978,7 +14679,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Jorge Arrate Mac Niven;Marco Enríquez-Ominami ;Sebastian Piñera;Eduardo Frei Ruiz-Tagle</t>
+          <t>Jorge Arrate Mac Niven;Marco Enríquez-Ominami;Sebastian Piñera;Eduardo Frei Ruiz-Tagle</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -14986,27 +14687,24 @@
           <t>sin ausencias conocidas</t>
         </is>
       </c>
-      <c r="S71">
-        <v>120</v>
-      </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>periodistas</t>
+          <t>moderadores</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -15016,17 +14714,27 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>monotema</t>
+          <t>puntuales</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE71">
@@ -15037,11 +14745,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AH71">
         <v>1</v>
       </c>
@@ -15068,12 +14771,12 @@
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AP71" t="inlineStr">
@@ -15103,7 +14806,7 @@
       </c>
       <c r="AU71" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV71" t="inlineStr">
@@ -15113,7 +14816,7 @@
       </c>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
@@ -15144,7 +14847,7 @@
         <v>2010</v>
       </c>
       <c r="D72" s="2">
-        <v>40126</v>
+        <v>40095</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -15154,27 +14857,27 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.916666666666667</t>
+          <t>0.354166666666667</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Canal 13 Pontificia Universidad Católica de Chile</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>"Chile Debate"</t>
+          <t>ARCHI;Universidad Mayor</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DUDA</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>estudio de Canal 13</t>
+          <t>Campus de la Universidad</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Daniel Matamala;Constanza Santa María</t>
+          <t>Alejandro de la Carrera;Verónica Franco;Cony Stipicic;Beatriz Sánche</t>
         </is>
       </c>
       <c r="O72">
@@ -15191,26 +14894,26 @@
         </is>
       </c>
       <c r="S72">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>moderadores;presentes;duelo</t>
+          <t>moderadores</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -15220,12 +14923,12 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>puntuales;libre</t>
+          <t>puntuales</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -15248,11 +14951,11 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI72">
         <v>0</v>
@@ -15272,7 +14975,7 @@
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
@@ -15307,7 +15010,7 @@
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AU72" t="inlineStr">
@@ -15317,7 +15020,7 @@
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr">
@@ -18796,11 +18499,6 @@
           <t>#DebateCHVCNN</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="M90" t="inlineStr">
         <is>
           <t>Mónica Rincón;Daniel Matamala</t>
@@ -19575,11 +19273,6 @@
           <t>Futuro del agua #DebateAguaXLARED</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="M94" t="inlineStr">
         <is>
           <t>Julia Vial</t>
@@ -19799,11 +19492,6 @@
           <t>Debate Universidad de Chile 2021  #DebateUchile</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
       <c r="M95" t="inlineStr">
         <is>
           <t>Mariela Ravanal</t>
@@ -22059,7 +21747,7 @@
       </c>
       <c r="AU105" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV105" t="inlineStr">
@@ -22278,7 +21966,7 @@
       </c>
       <c r="AU106" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV106" t="inlineStr">
@@ -28039,7 +27727,7 @@
       </c>
       <c r="AU134" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV134" t="inlineStr">
@@ -31136,7 +30824,7 @@
       </c>
       <c r="AU150" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV150" t="inlineStr">
@@ -46694,7 +46382,7 @@
       </c>
       <c r="AU236" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV236" t="inlineStr">
@@ -46913,7 +46601,7 @@
       </c>
       <c r="AU237" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV237" t="inlineStr">
@@ -47121,7 +46809,7 @@
       </c>
       <c r="AU238" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV238" t="inlineStr">
@@ -47332,7 +47020,7 @@
       </c>
       <c r="AU239" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV239" t="inlineStr">
@@ -47486,7 +47174,7 @@
       </c>
       <c r="AU240" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV240" t="inlineStr">
@@ -47705,7 +47393,7 @@
       </c>
       <c r="AU241" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV241" t="inlineStr">
@@ -47924,7 +47612,7 @@
       </c>
       <c r="AU242" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV242" t="inlineStr">
@@ -48128,7 +47816,7 @@
       </c>
       <c r="AU243" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV243" t="inlineStr">
@@ -48341,7 +48029,7 @@
       </c>
       <c r="AU244" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="AV244" t="inlineStr">
@@ -50263,7 +49951,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Televisión</t>
+          <t>Comisión Nacional de Televisión;Alianza MMC</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -50347,7 +50035,7 @@
       </c>
       <c r="AF255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG255" t="inlineStr">
@@ -50472,7 +50160,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Comisión Nacional de Televisión</t>
+          <t>Comisión Nacional de Televisión;Alianza MMC</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -50551,7 +50239,7 @@
       </c>
       <c r="AF256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH256">
@@ -74069,11 +73757,6 @@
       <c r="J372" t="inlineStr">
         <is>
           <t>#LaDiscusiónPresidencial</t>
-        </is>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>TRUE</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
